--- a/Report/Statistics.xlsx
+++ b/Report/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NetworkSwitchSimulator_RTOS_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA0F2F-6E03-4725-B835-B8B1AD44DAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28006F-7225-4354-8AC3-E27755408DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DB7B4BB2-C9F4-4700-A22A-73F430C9F5E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>P_Drop</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t>Packets Re-transmitted</t>
   </si>
+  <si>
+    <t>DNF</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +122,7 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -432,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2482,6 +2495,1454 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ThroughPut</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Tout</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1000261272731407"/>
+          <c:y val="0.12719009311018062"/>
+          <c:w val="0.84580796150481186"/>
+          <c:h val="0.66341205464430686"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pdrop = 0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SendAndWait!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$P$40:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7423.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7927.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8352.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8267.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89A8-4067-9D99-F5DA853F4666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pdrop = 0.02</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$Q$40:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7249.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7782.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8036.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8195.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-89A8-4067-9D99-F5DA853F4666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pdrop = 0.04</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$R$40:$R$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7325.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7862.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8069.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8048.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-89A8-4067-9D99-F5DA853F4666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Pdrop = 0.08</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$S$40:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7183.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7680.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7840.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7783.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89A8-4067-9D99-F5DA853F4666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1861877552"/>
+        <c:axId val="1861876592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1861877552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tout (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48545952925239177"/>
+              <c:y val="0.82611071853197837"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861876592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861876592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ThroughPut (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Bps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.28975901249523295"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861877552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2777777777777778E-2"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.60400549545075122"/>
+          <c:h val="5.9646735159912673E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ThroughPut vs Pdrop</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tout = 150</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SendAndWait!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$P$40:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7423.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7249.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7325.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7183.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40A3-4A55-83BD-2B3FB27D64EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tout = 175</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SendAndWait!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$P$41:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7927.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7782.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7862.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7680.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40A3-4A55-83BD-2B3FB27D64EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tout = 200</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SendAndWait!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$P$42:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8352.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8036.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8069.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7840.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40A3-4A55-83BD-2B3FB27D64EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Tout = 225</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SendAndWait!$A$21:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SendAndWait!$P$43:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8267.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8195.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8048.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7783.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-40A3-4A55-83BD-2B3FB27D64EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1861877552"/>
+        <c:axId val="1861876592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1861877552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Pdrop</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861876592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861876592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="7000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="10000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ThroughPut (Bps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6762452107279693E-2"/>
+              <c:y val="0.28553514144065323"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861877552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2602,6 +4063,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3609,6 +5150,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4218,6 +6765,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>426046</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>40789</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A6957F-CB76-4CDC-92E6-13EAA78165C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>247108</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63202</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA01C7C-1C44-4FEA-B3D8-7E326C0CEAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4545,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2301340B-8FCD-44E8-B10E-76F1A099ABDD}">
   <dimension ref="A1:BB90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="O15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ41" sqref="AQ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6165,14 +8788,22 @@
       <c r="M39" s="50"/>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
+      <c r="P39" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="Q39" s="54">
+        <v>0.02</v>
+      </c>
+      <c r="R39" s="54">
+        <v>0.04</v>
+      </c>
+      <c r="S39" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
       <c r="X39" s="50"/>
       <c r="Y39" s="50"/>
       <c r="Z39" s="50"/>
@@ -6220,15 +8851,25 @@
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
+      <c r="O40" s="54">
+        <v>150</v>
+      </c>
+      <c r="P40" s="54">
+        <v>7423.12</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>7249.67</v>
+      </c>
+      <c r="R40" s="54">
+        <v>7325.32</v>
+      </c>
+      <c r="S40" s="54">
+        <v>7183.22</v>
+      </c>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
       <c r="X40" s="50"/>
       <c r="Y40" s="50"/>
       <c r="Z40" s="50"/>
@@ -6276,15 +8917,25 @@
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
+      <c r="O41" s="54">
+        <v>175</v>
+      </c>
+      <c r="P41" s="54">
+        <v>7927.54</v>
+      </c>
+      <c r="Q41" s="54">
+        <v>7782.84</v>
+      </c>
+      <c r="R41" s="54">
+        <v>7862.11</v>
+      </c>
+      <c r="S41" s="54">
+        <v>7680.04</v>
+      </c>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
       <c r="X41" s="50"/>
       <c r="Y41" s="50"/>
       <c r="Z41" s="50"/>
@@ -6332,15 +8983,25 @@
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
       <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
+      <c r="O42" s="54">
+        <v>200</v>
+      </c>
+      <c r="P42" s="54">
+        <v>8352.09</v>
+      </c>
+      <c r="Q42" s="54">
+        <v>8036.64</v>
+      </c>
+      <c r="R42" s="54">
+        <v>8069.6</v>
+      </c>
+      <c r="S42" s="54">
+        <v>7840.3</v>
+      </c>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
       <c r="X42" s="50"/>
       <c r="Y42" s="50"/>
       <c r="Z42" s="50"/>
@@ -6388,14 +9049,24 @@
       <c r="L43" s="50"/>
       <c r="M43" s="50"/>
       <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
+      <c r="O43" s="54">
+        <v>225</v>
+      </c>
+      <c r="P43" s="54">
+        <v>8267.73</v>
+      </c>
+      <c r="Q43" s="54">
+        <v>8195.57</v>
+      </c>
+      <c r="R43" s="54">
+        <v>8048.84</v>
+      </c>
+      <c r="S43" s="54">
+        <v>7783.29</v>
+      </c>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="54"/>
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="50"/>
@@ -6444,14 +9115,14 @@
       <c r="L44" s="50"/>
       <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="54"/>
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="50"/>
@@ -6500,14 +9171,14 @@
       <c r="L45" s="50"/>
       <c r="M45" s="50"/>
       <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
       <c r="W45" s="50"/>
       <c r="X45" s="50"/>
       <c r="Y45" s="50"/>
@@ -6556,14 +9227,14 @@
       <c r="L46" s="50"/>
       <c r="M46" s="50"/>
       <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
       <c r="W46" s="50"/>
       <c r="X46" s="50"/>
       <c r="Y46" s="50"/>
@@ -9082,8 +11753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA95A4C4-E725-4802-A251-FD8D73A4246F}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9221,7 +11892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -9317,7 +11988,7 @@
         <v>2.780252100840336</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
@@ -9402,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
@@ -9665,91 +12336,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>200</v>
       </c>
       <c r="D8" s="19">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="F8" s="32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G8" s="32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H8" s="32">
-        <v>3</v>
-      </c>
-      <c r="I8" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>112</v>
+      </c>
       <c r="J8" s="32">
-        <v>0</v>
+        <v>496893</v>
       </c>
       <c r="K8" s="32">
-        <v>0</v>
+        <v>496893</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
       </c>
       <c r="M8" s="32">
-        <v>2500</v>
+        <v>482</v>
       </c>
       <c r="N8" s="32">
-        <v>2499</v>
+        <v>482</v>
       </c>
       <c r="O8" s="32">
-        <v>1</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>135</v>
+      </c>
       <c r="Q8" s="32">
-        <v>2509678</v>
+        <v>481867</v>
       </c>
       <c r="R8" s="32">
-        <v>2508287</v>
+        <v>481867</v>
       </c>
       <c r="S8" s="8">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="T8" s="32">
         <f>F8+M8</f>
-        <v>2500</v>
+        <v>982</v>
       </c>
       <c r="U8" s="32">
         <f>G8+N8</f>
-        <v>2499</v>
+        <v>982</v>
       </c>
       <c r="V8" s="32">
-        <v>1233</v>
+        <f>I8+P8</f>
+        <v>247</v>
       </c>
       <c r="W8" s="32">
         <f>H8+O8</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X8" s="32">
         <f>J8+Q8</f>
-        <v>2509678</v>
+        <v>978760</v>
       </c>
       <c r="Y8" s="32">
         <f>K8+R8</f>
-        <v>2508287</v>
+        <v>978760</v>
       </c>
       <c r="Z8" s="8">
         <f>L8+S8</f>
-        <v>1391</v>
-      </c>
-      <c r="AA8" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="25">
         <f>Y8/D8</f>
-        <v>#DIV/0!</v>
+        <v>8365.4700854700859</v>
       </c>
       <c r="AB8" s="36">
         <f t="shared" si="1"/>
-        <v>1.4932000000000001</v>
+        <v>1.2515274949083504</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9813,7 +12489,10 @@
         <f>G9+N9</f>
         <v>2429</v>
       </c>
-      <c r="V9" s="32"/>
+      <c r="V9" s="32">
+        <f t="shared" ref="V9:V26" si="2">I9+P9</f>
+        <v>0</v>
+      </c>
       <c r="W9" s="32">
         <f>H9+O9</f>
         <v>65</v>
@@ -9898,7 +12577,10 @@
         <f>G10+N10</f>
         <v>2444</v>
       </c>
-      <c r="V10" s="32"/>
+      <c r="V10" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W10" s="32">
         <f>H10+O10</f>
         <v>6</v>
@@ -9983,9 +12665,9 @@
         <f>G11+N11</f>
         <v>2387</v>
       </c>
-      <c r="V11" s="10">
-        <f>655+678</f>
-        <v>1333</v>
+      <c r="V11" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W11" s="10">
         <f>H11+O11</f>
@@ -10009,10 +12691,10 @@
       </c>
       <c r="AB11" s="37">
         <f t="shared" si="1"/>
-        <v>1.5584415584415585</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>4</v>
       </c>
@@ -10075,7 +12757,10 @@
         <f>G12+N12</f>
         <v>2419</v>
       </c>
-      <c r="V12" s="42"/>
+      <c r="V12" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W12" s="42">
         <f>H12+O12</f>
         <v>62</v>
@@ -10101,7 +12786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
@@ -10160,7 +12845,10 @@
         <f>G13+N13</f>
         <v>2491</v>
       </c>
-      <c r="V13" s="32"/>
+      <c r="V13" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W13" s="32">
         <f>H13+O13</f>
         <v>3</v>
@@ -10182,11 +12870,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="36">
-        <f t="shared" ref="AB13:AB20" si="2">1 + V13/T13</f>
+        <f t="shared" ref="AB13:AB20" si="3">1 + V13/T13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
@@ -10246,7 +12934,8 @@
         <v>2500</v>
       </c>
       <c r="V14" s="32">
-        <v>1180</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W14" s="32">
         <f>H14+O14</f>
@@ -10269,8 +12958,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB14" s="36">
-        <f t="shared" si="2"/>
-        <v>1.472</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10334,7 +13023,10 @@
         <f>G15+N15</f>
         <v>2390</v>
       </c>
-      <c r="V15" s="32"/>
+      <c r="V15" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W15" s="32">
         <f>H15+O15</f>
         <v>90</v>
@@ -10356,7 +13048,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB15" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10419,7 +13111,10 @@
         <f>G16+N16</f>
         <v>2463</v>
       </c>
-      <c r="V16" s="32"/>
+      <c r="V16" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W16" s="32">
         <f>H16+O16</f>
         <v>2</v>
@@ -10441,95 +13136,100 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB16" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6">
         <v>200</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="F17" s="32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G17" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H17" s="32">
-        <v>0</v>
-      </c>
-      <c r="I17" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>81</v>
+      </c>
       <c r="J17" s="32">
-        <v>0</v>
+        <v>31245</v>
       </c>
       <c r="K17" s="32">
-        <v>0</v>
+        <v>28030</v>
       </c>
       <c r="L17" s="8">
-        <v>0</v>
+        <v>3215</v>
       </c>
       <c r="M17" s="32">
-        <v>2500</v>
+        <v>32</v>
       </c>
       <c r="N17" s="32">
-        <v>2499</v>
+        <v>29</v>
       </c>
       <c r="O17" s="32">
-        <v>1</v>
-      </c>
-      <c r="P17" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="P17" s="12">
+        <v>29</v>
+      </c>
       <c r="Q17" s="32">
-        <v>2509678</v>
+        <v>33029</v>
       </c>
       <c r="R17" s="32">
-        <v>2508287</v>
+        <v>29878</v>
       </c>
       <c r="S17" s="8">
-        <v>1391</v>
+        <v>3151</v>
       </c>
       <c r="T17" s="32">
         <f>F17+M17</f>
-        <v>2500</v>
+        <v>64</v>
       </c>
       <c r="U17" s="32">
         <f>G17+N17</f>
-        <v>2499</v>
+        <v>58</v>
       </c>
       <c r="V17" s="32">
-        <v>1233</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="W17" s="32">
         <f>H17+O17</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X17" s="32">
         <f>J17+Q17</f>
-        <v>2509678</v>
+        <v>64274</v>
       </c>
       <c r="Y17" s="32">
         <f>K17+R17</f>
-        <v>2508287</v>
+        <v>57908</v>
       </c>
       <c r="Z17" s="8">
         <f>L17+S17</f>
-        <v>1391</v>
-      </c>
-      <c r="AA17" s="25" t="e">
+        <v>6366</v>
+      </c>
+      <c r="AA17" s="25">
         <f>Y17/D17</f>
-        <v>#DIV/0!</v>
+        <v>3406.3529411764707</v>
       </c>
       <c r="AB17" s="36">
-        <f t="shared" si="2"/>
-        <v>1.4932000000000001</v>
+        <f t="shared" si="3"/>
+        <v>2.71875</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -10593,7 +13293,10 @@
         <f>G18+N18</f>
         <v>2429</v>
       </c>
-      <c r="V18" s="32"/>
+      <c r="V18" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W18" s="32">
         <f>H18+O18</f>
         <v>65</v>
@@ -10615,7 +13318,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB18" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10678,7 +13381,10 @@
         <f>G19+N19</f>
         <v>2444</v>
       </c>
-      <c r="V19" s="32"/>
+      <c r="V19" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W19" s="32">
         <f>H19+O19</f>
         <v>6</v>
@@ -10700,7 +13406,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB19" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -10763,9 +13469,9 @@
         <f>G20+N20</f>
         <v>2387</v>
       </c>
-      <c r="V20" s="10">
-        <f>655+678</f>
-        <v>1333</v>
+      <c r="V20" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W20" s="10">
         <f>H20+O20</f>
@@ -10788,11 +13494,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB20" s="37">
-        <f t="shared" si="2"/>
-        <v>1.5584415584415585</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>8</v>
       </c>
@@ -10855,7 +13561,10 @@
         <f>G21+N21</f>
         <v>2419</v>
       </c>
-      <c r="V21" s="42"/>
+      <c r="V21" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W21" s="42">
         <f>H21+O21</f>
         <v>119</v>
@@ -10881,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4">
@@ -10940,7 +13649,10 @@
         <f>G22+N22</f>
         <v>2491</v>
       </c>
-      <c r="V22" s="32"/>
+      <c r="V22" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W22" s="32">
         <f>H22+O22</f>
         <v>3</v>
@@ -10962,11 +13674,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB22" s="36">
-        <f t="shared" ref="AB22:AB29" si="3">1 + V22/T22</f>
+        <f t="shared" ref="AB22:AB29" si="4">1 + V22/T22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
@@ -11026,7 +13738,8 @@
         <v>2500</v>
       </c>
       <c r="V23" s="32">
-        <v>1180</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W23" s="32">
         <f>H23+O23</f>
@@ -11049,8 +13762,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB23" s="36">
-        <f t="shared" si="3"/>
-        <v>1.472</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11114,7 +13827,10 @@
         <f>G24+N24</f>
         <v>2390</v>
       </c>
-      <c r="V24" s="32"/>
+      <c r="V24" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W24" s="32">
         <f>H24+O24</f>
         <v>90</v>
@@ -11136,7 +13852,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB24" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11199,7 +13915,10 @@
         <f>G25+N25</f>
         <v>2463</v>
       </c>
-      <c r="V25" s="32"/>
+      <c r="V25" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="W25" s="32">
         <f>H25+O25</f>
         <v>6</v>
@@ -11221,11 +13940,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB25" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6">
@@ -11247,7 +13966,9 @@
       <c r="H26" s="32">
         <v>0</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
       <c r="J26" s="32">
         <v>0</v>
       </c>
@@ -11258,58 +13979,60 @@
         <v>0</v>
       </c>
       <c r="M26" s="32">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="N26" s="32">
-        <v>2499</v>
+        <v>0</v>
       </c>
       <c r="O26" s="32">
-        <v>1</v>
-      </c>
-      <c r="P26" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
       <c r="Q26" s="32">
-        <v>2509678</v>
+        <v>0</v>
       </c>
       <c r="R26" s="32">
-        <v>2508287</v>
+        <v>0</v>
       </c>
       <c r="S26" s="8">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="T26" s="32">
         <f>F26+M26</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="U26" s="32">
         <f>G26+N26</f>
-        <v>2499</v>
+        <v>0</v>
       </c>
       <c r="V26" s="32">
-        <v>1233</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="W26" s="32">
         <f>H26+O26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="32">
         <f>J26+Q26</f>
-        <v>2509678</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="32">
         <f>K26+R26</f>
-        <v>2508287</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="8">
         <f>L26+S26</f>
-        <v>1391</v>
-      </c>
-      <c r="AA26" s="25" t="e">
-        <f>Y26/D26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB26" s="36" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="36">
-        <f t="shared" si="3"/>
-        <v>1.4932000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -11395,7 +14118,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB27" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11480,11 +14203,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB28" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4">
@@ -11568,7 +14291,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB29" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5584415584415585</v>
       </c>
     </row>

--- a/Report/Statistics.xlsx
+++ b/Report/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\NetworkSwitchSimulator_RTOS_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28006F-7225-4354-8AC3-E27755408DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9D120-D4D6-4A78-B24B-86E0AC2C22C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DB7B4BB2-C9F4-4700-A22A-73F430C9F5E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB7B4BB2-C9F4-4700-A22A-73F430C9F5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="SendAndWait" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>P_Drop</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Packets Re-transmitted</t>
-  </si>
-  <si>
-    <t>DNF</t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,9 +535,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,12 +542,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -570,11 +558,51 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7168,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2301340B-8FCD-44E8-B10E-76F1A099ABDD}">
   <dimension ref="A1:BB90"/>
   <sheetViews>
-    <sheetView topLeftCell="O15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ41" sqref="AQ41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7240,7 +7268,7 @@
       <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -7258,22 +7286,22 @@
       <c r="J2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="22" t="s">
@@ -8661,3076 +8689,3076 @@
       </c>
     </row>
     <row r="37" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="50"/>
-      <c r="AE37" s="50"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
-      <c r="AM37" s="50"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="50"/>
-      <c r="AQ37" s="50"/>
-      <c r="AR37" s="50"/>
-      <c r="AS37" s="50"/>
-      <c r="AT37" s="50"/>
-      <c r="AU37" s="50"/>
-      <c r="AV37" s="50"/>
-      <c r="AW37" s="50"/>
-      <c r="AX37" s="50"/>
-      <c r="AY37" s="50"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="50"/>
-      <c r="BB37" s="50"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="47"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="47"/>
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="47"/>
+      <c r="AK37" s="47"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="47"/>
+      <c r="AW37" s="47"/>
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="47"/>
+      <c r="BB37" s="47"/>
     </row>
     <row r="38" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="50"/>
-      <c r="AE38" s="50"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="50"/>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="50"/>
-      <c r="AK38" s="50"/>
-      <c r="AL38" s="50"/>
-      <c r="AM38" s="50"/>
-      <c r="AN38" s="50"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="50"/>
-      <c r="AQ38" s="50"/>
-      <c r="AR38" s="50"/>
-      <c r="AS38" s="50"/>
-      <c r="AT38" s="50"/>
-      <c r="AU38" s="50"/>
-      <c r="AV38" s="50"/>
-      <c r="AW38" s="50"/>
-      <c r="AX38" s="50"/>
-      <c r="AY38" s="50"/>
-      <c r="AZ38" s="50"/>
-      <c r="BA38" s="50"/>
-      <c r="BB38" s="50"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="47"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="47"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
+      <c r="AN38" s="47"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="47"/>
+      <c r="AV38" s="47"/>
+      <c r="AW38" s="47"/>
+      <c r="AX38" s="47"/>
+      <c r="AY38" s="47"/>
+      <c r="AZ38" s="47"/>
+      <c r="BA38" s="47"/>
+      <c r="BB38" s="47"/>
     </row>
     <row r="39" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="54">
+      <c r="A39" s="47"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="50">
         <v>0.01</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="50">
         <v>0.02</v>
       </c>
-      <c r="R39" s="54">
+      <c r="R39" s="50">
         <v>0.04</v>
       </c>
-      <c r="S39" s="54">
+      <c r="S39" s="50">
         <v>0.08</v>
       </c>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="50"/>
-      <c r="AQ39" s="50"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="47"/>
+      <c r="AE39" s="47"/>
+      <c r="AF39" s="47"/>
+      <c r="AG39" s="47"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="47"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
+      <c r="AN39" s="47"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="47"/>
+      <c r="AT39" s="47"/>
+      <c r="AU39" s="47"/>
+      <c r="AV39" s="47"/>
+      <c r="AW39" s="47"/>
+      <c r="AX39" s="47"/>
+      <c r="AY39" s="47"/>
+      <c r="AZ39" s="47"/>
+      <c r="BA39" s="47"/>
+      <c r="BB39" s="47"/>
     </row>
     <row r="40" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="54">
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="50">
         <v>150</v>
       </c>
-      <c r="P40" s="54">
+      <c r="P40" s="50">
         <v>7423.12</v>
       </c>
-      <c r="Q40" s="54">
+      <c r="Q40" s="50">
         <v>7249.67</v>
       </c>
-      <c r="R40" s="54">
+      <c r="R40" s="50">
         <v>7325.32</v>
       </c>
-      <c r="S40" s="54">
+      <c r="S40" s="50">
         <v>7183.22</v>
       </c>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-      <c r="AA40" s="50"/>
-      <c r="AB40" s="50"/>
-      <c r="AC40" s="50"/>
-      <c r="AD40" s="50"/>
-      <c r="AE40" s="50"/>
-      <c r="AF40" s="50"/>
-      <c r="AG40" s="50"/>
-      <c r="AH40" s="50"/>
-      <c r="AI40" s="50"/>
-      <c r="AJ40" s="50"/>
-      <c r="AK40" s="50"/>
-      <c r="AL40" s="50"/>
-      <c r="AM40" s="50"/>
-      <c r="AN40" s="50"/>
-      <c r="AO40" s="50"/>
-      <c r="AP40" s="50"/>
-      <c r="AQ40" s="50"/>
-      <c r="AR40" s="50"/>
-      <c r="AS40" s="50"/>
-      <c r="AT40" s="50"/>
-      <c r="AU40" s="50"/>
-      <c r="AV40" s="50"/>
-      <c r="AW40" s="50"/>
-      <c r="AX40" s="50"/>
-      <c r="AY40" s="50"/>
-      <c r="AZ40" s="50"/>
-      <c r="BA40" s="50"/>
-      <c r="BB40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="47"/>
+      <c r="AE40" s="47"/>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="47"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="47"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="47"/>
+      <c r="AN40" s="47"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="47"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="47"/>
+      <c r="AT40" s="47"/>
+      <c r="AU40" s="47"/>
+      <c r="AV40" s="47"/>
+      <c r="AW40" s="47"/>
+      <c r="AX40" s="47"/>
+      <c r="AY40" s="47"/>
+      <c r="AZ40" s="47"/>
+      <c r="BA40" s="47"/>
+      <c r="BB40" s="47"/>
     </row>
     <row r="41" spans="1:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="54">
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="50">
         <v>175</v>
       </c>
-      <c r="P41" s="54">
+      <c r="P41" s="50">
         <v>7927.54</v>
       </c>
-      <c r="Q41" s="54">
+      <c r="Q41" s="50">
         <v>7782.84</v>
       </c>
-      <c r="R41" s="54">
+      <c r="R41" s="50">
         <v>7862.11</v>
       </c>
-      <c r="S41" s="54">
+      <c r="S41" s="50">
         <v>7680.04</v>
       </c>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="Z41" s="50"/>
-      <c r="AA41" s="50"/>
-      <c r="AB41" s="50"/>
-      <c r="AC41" s="50"/>
-      <c r="AD41" s="50"/>
-      <c r="AE41" s="50"/>
-      <c r="AF41" s="50"/>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="50"/>
-      <c r="AI41" s="50"/>
-      <c r="AJ41" s="50"/>
-      <c r="AK41" s="50"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="50"/>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="50"/>
-      <c r="AQ41" s="50"/>
-      <c r="AR41" s="50"/>
-      <c r="AS41" s="50"/>
-      <c r="AT41" s="50"/>
-      <c r="AU41" s="50"/>
-      <c r="AV41" s="50"/>
-      <c r="AW41" s="50"/>
-      <c r="AX41" s="50"/>
-      <c r="AY41" s="50"/>
-      <c r="AZ41" s="50"/>
-      <c r="BA41" s="50"/>
-      <c r="BB41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="47"/>
+      <c r="AL41" s="47"/>
+      <c r="AM41" s="47"/>
+      <c r="AN41" s="47"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="47"/>
+      <c r="AT41" s="47"/>
+      <c r="AU41" s="47"/>
+      <c r="AV41" s="47"/>
+      <c r="AW41" s="47"/>
+      <c r="AX41" s="47"/>
+      <c r="AY41" s="47"/>
+      <c r="AZ41" s="47"/>
+      <c r="BA41" s="47"/>
+      <c r="BB41" s="47"/>
     </row>
     <row r="42" spans="1:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="54">
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="50">
         <v>200</v>
       </c>
-      <c r="P42" s="54">
+      <c r="P42" s="50">
         <v>8352.09</v>
       </c>
-      <c r="Q42" s="54">
+      <c r="Q42" s="50">
         <v>8036.64</v>
       </c>
-      <c r="R42" s="54">
+      <c r="R42" s="50">
         <v>8069.6</v>
       </c>
-      <c r="S42" s="54">
+      <c r="S42" s="50">
         <v>7840.3</v>
       </c>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50"/>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50"/>
-      <c r="AN42" s="50"/>
-      <c r="AO42" s="50"/>
-      <c r="AP42" s="50"/>
-      <c r="AQ42" s="50"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="50"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-      <c r="BA42" s="50"/>
-      <c r="BB42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="47"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="47"/>
+      <c r="AL42" s="47"/>
+      <c r="AM42" s="47"/>
+      <c r="AN42" s="47"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="47"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="47"/>
+      <c r="AT42" s="47"/>
+      <c r="AU42" s="47"/>
+      <c r="AV42" s="47"/>
+      <c r="AW42" s="47"/>
+      <c r="AX42" s="47"/>
+      <c r="AY42" s="47"/>
+      <c r="AZ42" s="47"/>
+      <c r="BA42" s="47"/>
+      <c r="BB42" s="47"/>
     </row>
     <row r="43" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="54">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="50">
         <v>225</v>
       </c>
-      <c r="P43" s="54">
+      <c r="P43" s="50">
         <v>8267.73</v>
       </c>
-      <c r="Q43" s="54">
+      <c r="Q43" s="50">
         <v>8195.57</v>
       </c>
-      <c r="R43" s="54">
+      <c r="R43" s="50">
         <v>8048.84</v>
       </c>
-      <c r="S43" s="54">
+      <c r="S43" s="50">
         <v>7783.29</v>
       </c>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="50"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="50"/>
-      <c r="AK43" s="50"/>
-      <c r="AL43" s="50"/>
-      <c r="AM43" s="50"/>
-      <c r="AN43" s="50"/>
-      <c r="AO43" s="50"/>
-      <c r="AP43" s="50"/>
-      <c r="AQ43" s="50"/>
-      <c r="AR43" s="50"/>
-      <c r="AS43" s="50"/>
-      <c r="AT43" s="50"/>
-      <c r="AU43" s="50"/>
-      <c r="AV43" s="50"/>
-      <c r="AW43" s="50"/>
-      <c r="AX43" s="50"/>
-      <c r="AY43" s="50"/>
-      <c r="AZ43" s="50"/>
-      <c r="BA43" s="50"/>
-      <c r="BB43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="47"/>
+      <c r="AJ43" s="47"/>
+      <c r="AK43" s="47"/>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="47"/>
+      <c r="AN43" s="47"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="47"/>
+      <c r="AQ43" s="47"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="47"/>
+      <c r="AT43" s="47"/>
+      <c r="AU43" s="47"/>
+      <c r="AV43" s="47"/>
+      <c r="AW43" s="47"/>
+      <c r="AX43" s="47"/>
+      <c r="AY43" s="47"/>
+      <c r="AZ43" s="47"/>
+      <c r="BA43" s="47"/>
+      <c r="BB43" s="47"/>
     </row>
     <row r="44" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="50"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="50"/>
-      <c r="AK44" s="50"/>
-      <c r="AL44" s="50"/>
-      <c r="AM44" s="50"/>
-      <c r="AN44" s="50"/>
-      <c r="AO44" s="50"/>
-      <c r="AP44" s="50"/>
-      <c r="AQ44" s="50"/>
-      <c r="AR44" s="50"/>
-      <c r="AS44" s="50"/>
-      <c r="AT44" s="50"/>
-      <c r="AU44" s="50"/>
-      <c r="AV44" s="50"/>
-      <c r="AW44" s="50"/>
-      <c r="AX44" s="50"/>
-      <c r="AY44" s="50"/>
-      <c r="AZ44" s="50"/>
-      <c r="BA44" s="50"/>
-      <c r="BB44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="47"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="47"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="47"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="47"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="47"/>
+      <c r="AT44" s="47"/>
+      <c r="AU44" s="47"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="47"/>
+      <c r="AX44" s="47"/>
+      <c r="AY44" s="47"/>
+      <c r="AZ44" s="47"/>
+      <c r="BA44" s="47"/>
+      <c r="BB44" s="47"/>
     </row>
     <row r="45" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="54"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="54"/>
-      <c r="V45" s="54"/>
-      <c r="W45" s="50"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="50"/>
-      <c r="Z45" s="50"/>
-      <c r="AA45" s="50"/>
-      <c r="AB45" s="50"/>
-      <c r="AC45" s="50"/>
-      <c r="AD45" s="50"/>
-      <c r="AE45" s="50"/>
-      <c r="AF45" s="50"/>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="50"/>
-      <c r="AK45" s="50"/>
-      <c r="AL45" s="50"/>
-      <c r="AM45" s="50"/>
-      <c r="AN45" s="50"/>
-      <c r="AO45" s="50"/>
-      <c r="AP45" s="50"/>
-      <c r="AQ45" s="50"/>
-      <c r="AR45" s="50"/>
-      <c r="AS45" s="50"/>
-      <c r="AT45" s="50"/>
-      <c r="AU45" s="50"/>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
-      <c r="BB45" s="50"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="50"/>
-      <c r="AK46" s="50"/>
-      <c r="AL46" s="50"/>
-      <c r="AM46" s="50"/>
-      <c r="AN46" s="50"/>
-      <c r="AO46" s="50"/>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="50"/>
-      <c r="AR46" s="50"/>
-      <c r="AS46" s="50"/>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="50"/>
-      <c r="AV46" s="50"/>
-      <c r="AW46" s="50"/>
-      <c r="AX46" s="50"/>
-      <c r="AY46" s="50"/>
-      <c r="AZ46" s="50"/>
-      <c r="BA46" s="50"/>
-      <c r="BB46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="47"/>
+      <c r="AF46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="47"/>
+      <c r="AJ46" s="47"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="47"/>
+      <c r="AM46" s="47"/>
+      <c r="AN46" s="47"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AQ46" s="47"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="47"/>
+      <c r="AT46" s="47"/>
+      <c r="AU46" s="47"/>
+      <c r="AV46" s="47"/>
+      <c r="AW46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="47"/>
     </row>
     <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="50"/>
-      <c r="AC47" s="50"/>
-      <c r="AD47" s="50"/>
-      <c r="AE47" s="50"/>
-      <c r="AF47" s="50"/>
-      <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="50"/>
-      <c r="AJ47" s="50"/>
-      <c r="AK47" s="50"/>
-      <c r="AL47" s="50"/>
-      <c r="AM47" s="50"/>
-      <c r="AN47" s="50"/>
-      <c r="AO47" s="50"/>
-      <c r="AP47" s="50"/>
-      <c r="AQ47" s="50"/>
-      <c r="AR47" s="50"/>
-      <c r="AS47" s="50"/>
-      <c r="AT47" s="50"/>
-      <c r="AU47" s="50"/>
-      <c r="AV47" s="50"/>
-      <c r="AW47" s="50"/>
-      <c r="AX47" s="50"/>
-      <c r="AY47" s="50"/>
-      <c r="AZ47" s="50"/>
-      <c r="BA47" s="50"/>
-      <c r="BB47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="47"/>
+      <c r="AL47" s="47"/>
+      <c r="AM47" s="47"/>
+      <c r="AN47" s="47"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AQ47" s="47"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="47"/>
+      <c r="AT47" s="47"/>
+      <c r="AU47" s="47"/>
+      <c r="AV47" s="47"/>
+      <c r="AW47" s="47"/>
+      <c r="AX47" s="47"/>
+      <c r="AY47" s="47"/>
+      <c r="AZ47" s="47"/>
+      <c r="BA47" s="47"/>
+      <c r="BB47" s="47"/>
     </row>
     <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="50"/>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AE48" s="50"/>
-      <c r="AF48" s="50"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="50"/>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
-      <c r="AP48" s="50"/>
-      <c r="AQ48" s="50"/>
-      <c r="AR48" s="50"/>
-      <c r="AS48" s="50"/>
-      <c r="AT48" s="50"/>
-      <c r="AU48" s="50"/>
-      <c r="AV48" s="50"/>
-      <c r="AW48" s="50"/>
-      <c r="AX48" s="50"/>
-      <c r="AY48" s="50"/>
-      <c r="AZ48" s="50"/>
-      <c r="BA48" s="50"/>
-      <c r="BB48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="47"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="47"/>
+      <c r="AE48" s="47"/>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="47"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="47"/>
+      <c r="AK48" s="47"/>
+      <c r="AL48" s="47"/>
+      <c r="AM48" s="47"/>
+      <c r="AN48" s="47"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AQ48" s="47"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="47"/>
+      <c r="AT48" s="47"/>
+      <c r="AU48" s="47"/>
+      <c r="AV48" s="47"/>
+      <c r="AW48" s="47"/>
+      <c r="AX48" s="47"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47"/>
+      <c r="BA48" s="47"/>
+      <c r="BB48" s="47"/>
     </row>
     <row r="49" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="50"/>
-      <c r="AL49" s="50"/>
-      <c r="AM49" s="50"/>
-      <c r="AN49" s="50"/>
-      <c r="AO49" s="50"/>
-      <c r="AP49" s="50"/>
-      <c r="AQ49" s="50"/>
-      <c r="AR49" s="50"/>
-      <c r="AS49" s="50"/>
-      <c r="AT49" s="50"/>
-      <c r="AU49" s="50"/>
-      <c r="AV49" s="50"/>
-      <c r="AW49" s="50"/>
-      <c r="AX49" s="50"/>
-      <c r="AY49" s="50"/>
-      <c r="AZ49" s="50"/>
-      <c r="BA49" s="50"/>
-      <c r="BB49" s="50"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="47"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="47"/>
+      <c r="AE49" s="47"/>
+      <c r="AF49" s="47"/>
+      <c r="AG49" s="47"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="47"/>
+      <c r="AJ49" s="47"/>
+      <c r="AK49" s="47"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="47"/>
+      <c r="AN49" s="47"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AQ49" s="47"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="47"/>
+      <c r="AT49" s="47"/>
+      <c r="AU49" s="47"/>
+      <c r="AV49" s="47"/>
+      <c r="AW49" s="47"/>
+      <c r="AX49" s="47"/>
+      <c r="AY49" s="47"/>
+      <c r="AZ49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47"/>
     </row>
     <row r="50" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="50"/>
-      <c r="Z50" s="50"/>
-      <c r="AA50" s="50"/>
-      <c r="AB50" s="50"/>
-      <c r="AC50" s="50"/>
-      <c r="AD50" s="50"/>
-      <c r="AE50" s="50"/>
-      <c r="AF50" s="50"/>
-      <c r="AG50" s="50"/>
-      <c r="AH50" s="50"/>
-      <c r="AI50" s="50"/>
-      <c r="AJ50" s="50"/>
-      <c r="AK50" s="50"/>
-      <c r="AL50" s="50"/>
-      <c r="AM50" s="50"/>
-      <c r="AN50" s="50"/>
-      <c r="AO50" s="50"/>
-      <c r="AP50" s="50"/>
-      <c r="AQ50" s="50"/>
-      <c r="AR50" s="50"/>
-      <c r="AS50" s="50"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="50"/>
-      <c r="AV50" s="50"/>
-      <c r="AW50" s="50"/>
-      <c r="AX50" s="50"/>
-      <c r="AY50" s="50"/>
-      <c r="AZ50" s="50"/>
-      <c r="BA50" s="50"/>
-      <c r="BB50" s="50"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="47"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="47"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="47"/>
+      <c r="AE50" s="47"/>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="47"/>
+      <c r="AJ50" s="47"/>
+      <c r="AK50" s="47"/>
+      <c r="AL50" s="47"/>
+      <c r="AM50" s="47"/>
+      <c r="AN50" s="47"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
+      <c r="AQ50" s="47"/>
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="47"/>
+      <c r="AT50" s="47"/>
+      <c r="AU50" s="47"/>
+      <c r="AV50" s="47"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="47"/>
+      <c r="AY50" s="47"/>
+      <c r="AZ50" s="47"/>
+      <c r="BA50" s="47"/>
+      <c r="BB50" s="47"/>
     </row>
     <row r="51" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="50"/>
-      <c r="Y51" s="50"/>
-      <c r="Z51" s="50"/>
-      <c r="AA51" s="50"/>
-      <c r="AB51" s="50"/>
-      <c r="AC51" s="50"/>
-      <c r="AD51" s="50"/>
-      <c r="AE51" s="50"/>
-      <c r="AF51" s="50"/>
-      <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="50"/>
-      <c r="AJ51" s="50"/>
-      <c r="AK51" s="50"/>
-      <c r="AL51" s="50"/>
-      <c r="AM51" s="50"/>
-      <c r="AN51" s="50"/>
-      <c r="AO51" s="50"/>
-      <c r="AP51" s="50"/>
-      <c r="AQ51" s="50"/>
-      <c r="AR51" s="50"/>
-      <c r="AS51" s="50"/>
-      <c r="AT51" s="50"/>
-      <c r="AU51" s="50"/>
-      <c r="AV51" s="50"/>
-      <c r="AW51" s="50"/>
-      <c r="AX51" s="50"/>
-      <c r="AY51" s="50"/>
-      <c r="AZ51" s="50"/>
-      <c r="BA51" s="50"/>
-      <c r="BB51" s="50"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="47"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="47"/>
+      <c r="AJ51" s="47"/>
+      <c r="AK51" s="47"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="47"/>
+      <c r="AN51" s="47"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="47"/>
+      <c r="AR51" s="47"/>
+      <c r="AS51" s="47"/>
+      <c r="AT51" s="47"/>
+      <c r="AU51" s="47"/>
+      <c r="AV51" s="47"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="47"/>
+      <c r="AY51" s="47"/>
+      <c r="AZ51" s="47"/>
+      <c r="BA51" s="47"/>
+      <c r="BB51" s="47"/>
     </row>
     <row r="52" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="50"/>
-      <c r="AD52" s="50"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="50"/>
-      <c r="AK52" s="50"/>
-      <c r="AL52" s="50"/>
-      <c r="AM52" s="50"/>
-      <c r="AN52" s="50"/>
-      <c r="AO52" s="50"/>
-      <c r="AP52" s="50"/>
-      <c r="AQ52" s="50"/>
-      <c r="AR52" s="50"/>
-      <c r="AS52" s="50"/>
-      <c r="AT52" s="50"/>
-      <c r="AU52" s="50"/>
-      <c r="AV52" s="50"/>
-      <c r="AW52" s="50"/>
-      <c r="AX52" s="50"/>
-      <c r="AY52" s="50"/>
-      <c r="AZ52" s="50"/>
-      <c r="BA52" s="50"/>
-      <c r="BB52" s="50"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="47"/>
+      <c r="AG52" s="47"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="47"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="47"/>
+      <c r="AL52" s="47"/>
+      <c r="AM52" s="47"/>
+      <c r="AN52" s="47"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
+      <c r="AQ52" s="47"/>
+      <c r="AR52" s="47"/>
+      <c r="AS52" s="47"/>
+      <c r="AT52" s="47"/>
+      <c r="AU52" s="47"/>
+      <c r="AV52" s="47"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="47"/>
+      <c r="AY52" s="47"/>
+      <c r="AZ52" s="47"/>
+      <c r="BA52" s="47"/>
+      <c r="BB52" s="47"/>
     </row>
     <row r="53" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="50"/>
-      <c r="AK53" s="50"/>
-      <c r="AL53" s="50"/>
-      <c r="AM53" s="50"/>
-      <c r="AN53" s="50"/>
-      <c r="AO53" s="50"/>
-      <c r="AP53" s="50"/>
-      <c r="AQ53" s="50"/>
-      <c r="AR53" s="50"/>
-      <c r="AS53" s="50"/>
-      <c r="AT53" s="50"/>
-      <c r="AU53" s="50"/>
-      <c r="AV53" s="50"/>
-      <c r="AW53" s="50"/>
-      <c r="AX53" s="50"/>
-      <c r="AY53" s="50"/>
-      <c r="AZ53" s="50"/>
-      <c r="BA53" s="50"/>
-      <c r="BB53" s="50"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="47"/>
+      <c r="AG53" s="47"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="47"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="47"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="47"/>
+      <c r="AN53" s="47"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
+      <c r="AQ53" s="47"/>
+      <c r="AR53" s="47"/>
+      <c r="AS53" s="47"/>
+      <c r="AT53" s="47"/>
+      <c r="AU53" s="47"/>
+      <c r="AV53" s="47"/>
+      <c r="AW53" s="47"/>
+      <c r="AX53" s="47"/>
+      <c r="AY53" s="47"/>
+      <c r="AZ53" s="47"/>
+      <c r="BA53" s="47"/>
+      <c r="BB53" s="47"/>
     </row>
     <row r="54" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="50"/>
-      <c r="AF54" s="50"/>
-      <c r="AG54" s="50"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="50"/>
-      <c r="AJ54" s="50"/>
-      <c r="AK54" s="50"/>
-      <c r="AL54" s="50"/>
-      <c r="AM54" s="50"/>
-      <c r="AN54" s="50"/>
-      <c r="AO54" s="50"/>
-      <c r="AP54" s="50"/>
-      <c r="AQ54" s="50"/>
-      <c r="AR54" s="50"/>
-      <c r="AS54" s="50"/>
-      <c r="AT54" s="50"/>
-      <c r="AU54" s="50"/>
-      <c r="AV54" s="50"/>
-      <c r="AW54" s="50"/>
-      <c r="AX54" s="50"/>
-      <c r="AY54" s="50"/>
-      <c r="AZ54" s="50"/>
-      <c r="BA54" s="50"/>
-      <c r="BB54" s="50"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="47"/>
+      <c r="AE54" s="47"/>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47"/>
+      <c r="AH54" s="47"/>
+      <c r="AI54" s="47"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="47"/>
+      <c r="AL54" s="47"/>
+      <c r="AM54" s="47"/>
+      <c r="AN54" s="47"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
+      <c r="AQ54" s="47"/>
+      <c r="AR54" s="47"/>
+      <c r="AS54" s="47"/>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="47"/>
+      <c r="AV54" s="47"/>
+      <c r="AW54" s="47"/>
+      <c r="AX54" s="47"/>
+      <c r="AY54" s="47"/>
+      <c r="AZ54" s="47"/>
+      <c r="BA54" s="47"/>
+      <c r="BB54" s="47"/>
     </row>
     <row r="55" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="50"/>
-      <c r="AK55" s="50"/>
-      <c r="AL55" s="50"/>
-      <c r="AM55" s="50"/>
-      <c r="AN55" s="50"/>
-      <c r="AO55" s="50"/>
-      <c r="AP55" s="50"/>
-      <c r="AQ55" s="50"/>
-      <c r="AR55" s="50"/>
-      <c r="AS55" s="50"/>
-      <c r="AT55" s="50"/>
-      <c r="AU55" s="50"/>
-      <c r="AV55" s="50"/>
-      <c r="AW55" s="50"/>
-      <c r="AX55" s="50"/>
-      <c r="AY55" s="50"/>
-      <c r="AZ55" s="50"/>
-      <c r="BA55" s="50"/>
-      <c r="BB55" s="50"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="47"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="47"/>
+      <c r="AE55" s="47"/>
+      <c r="AF55" s="47"/>
+      <c r="AG55" s="47"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="47"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="47"/>
+      <c r="AL55" s="47"/>
+      <c r="AM55" s="47"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
+      <c r="AQ55" s="47"/>
+      <c r="AR55" s="47"/>
+      <c r="AS55" s="47"/>
+      <c r="AT55" s="47"/>
+      <c r="AU55" s="47"/>
+      <c r="AV55" s="47"/>
+      <c r="AW55" s="47"/>
+      <c r="AX55" s="47"/>
+      <c r="AY55" s="47"/>
+      <c r="AZ55" s="47"/>
+      <c r="BA55" s="47"/>
+      <c r="BB55" s="47"/>
     </row>
     <row r="56" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="50"/>
-      <c r="AJ56" s="50"/>
-      <c r="AK56" s="50"/>
-      <c r="AL56" s="50"/>
-      <c r="AM56" s="50"/>
-      <c r="AN56" s="50"/>
-      <c r="AO56" s="50"/>
-      <c r="AP56" s="50"/>
-      <c r="AQ56" s="50"/>
-      <c r="AR56" s="50"/>
-      <c r="AS56" s="50"/>
-      <c r="AT56" s="50"/>
-      <c r="AU56" s="50"/>
-      <c r="AV56" s="50"/>
-      <c r="AW56" s="50"/>
-      <c r="AX56" s="50"/>
-      <c r="AY56" s="50"/>
-      <c r="AZ56" s="50"/>
-      <c r="BA56" s="50"/>
-      <c r="BB56" s="50"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="47"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="47"/>
+      <c r="AE56" s="47"/>
+      <c r="AF56" s="47"/>
+      <c r="AG56" s="47"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="47"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="47"/>
+      <c r="AL56" s="47"/>
+      <c r="AM56" s="47"/>
+      <c r="AN56" s="47"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
+      <c r="AQ56" s="47"/>
+      <c r="AR56" s="47"/>
+      <c r="AS56" s="47"/>
+      <c r="AT56" s="47"/>
+      <c r="AU56" s="47"/>
+      <c r="AV56" s="47"/>
+      <c r="AW56" s="47"/>
+      <c r="AX56" s="47"/>
+      <c r="AY56" s="47"/>
+      <c r="AZ56" s="47"/>
+      <c r="BA56" s="47"/>
+      <c r="BB56" s="47"/>
     </row>
     <row r="57" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-      <c r="Z57" s="50"/>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
-      <c r="AJ57" s="50"/>
-      <c r="AK57" s="50"/>
-      <c r="AL57" s="50"/>
-      <c r="AM57" s="50"/>
-      <c r="AN57" s="50"/>
-      <c r="AO57" s="50"/>
-      <c r="AP57" s="50"/>
-      <c r="AQ57" s="50"/>
-      <c r="AR57" s="50"/>
-      <c r="AS57" s="50"/>
-      <c r="AT57" s="50"/>
-      <c r="AU57" s="50"/>
-      <c r="AV57" s="50"/>
-      <c r="AW57" s="50"/>
-      <c r="AX57" s="50"/>
-      <c r="AY57" s="50"/>
-      <c r="AZ57" s="50"/>
-      <c r="BA57" s="50"/>
-      <c r="BB57" s="50"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="47"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="47"/>
+      <c r="AE57" s="47"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="47"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="47"/>
+      <c r="AL57" s="47"/>
+      <c r="AM57" s="47"/>
+      <c r="AN57" s="47"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="47"/>
+      <c r="AQ57" s="47"/>
+      <c r="AR57" s="47"/>
+      <c r="AS57" s="47"/>
+      <c r="AT57" s="47"/>
+      <c r="AU57" s="47"/>
+      <c r="AV57" s="47"/>
+      <c r="AW57" s="47"/>
+      <c r="AX57" s="47"/>
+      <c r="AY57" s="47"/>
+      <c r="AZ57" s="47"/>
+      <c r="BA57" s="47"/>
+      <c r="BB57" s="47"/>
     </row>
     <row r="58" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="50"/>
-      <c r="O58" s="50"/>
-      <c r="P58" s="50"/>
-      <c r="Q58" s="50"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
-      <c r="W58" s="50"/>
-      <c r="X58" s="50"/>
-      <c r="Y58" s="50"/>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="50"/>
-      <c r="AG58" s="50"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="50"/>
-      <c r="AJ58" s="50"/>
-      <c r="AK58" s="50"/>
-      <c r="AL58" s="50"/>
-      <c r="AM58" s="50"/>
-      <c r="AN58" s="50"/>
-      <c r="AO58" s="50"/>
-      <c r="AP58" s="50"/>
-      <c r="AQ58" s="50"/>
-      <c r="AR58" s="50"/>
-      <c r="AS58" s="50"/>
-      <c r="AT58" s="50"/>
-      <c r="AU58" s="50"/>
-      <c r="AV58" s="50"/>
-      <c r="AW58" s="50"/>
-      <c r="AX58" s="50"/>
-      <c r="AY58" s="50"/>
-      <c r="AZ58" s="50"/>
-      <c r="BA58" s="50"/>
-      <c r="BB58" s="50"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="47"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
+      <c r="AQ58" s="47"/>
+      <c r="AR58" s="47"/>
+      <c r="AS58" s="47"/>
+      <c r="AT58" s="47"/>
+      <c r="AU58" s="47"/>
+      <c r="AV58" s="47"/>
+      <c r="AW58" s="47"/>
+      <c r="AX58" s="47"/>
+      <c r="AY58" s="47"/>
+      <c r="AZ58" s="47"/>
+      <c r="BA58" s="47"/>
+      <c r="BB58" s="47"/>
     </row>
     <row r="59" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="50"/>
-      <c r="AB59" s="50"/>
-      <c r="AC59" s="50"/>
-      <c r="AD59" s="50"/>
-      <c r="AE59" s="50"/>
-      <c r="AF59" s="50"/>
-      <c r="AG59" s="50"/>
-      <c r="AH59" s="50"/>
-      <c r="AI59" s="50"/>
-      <c r="AJ59" s="50"/>
-      <c r="AK59" s="50"/>
-      <c r="AL59" s="50"/>
-      <c r="AM59" s="50"/>
-      <c r="AN59" s="50"/>
-      <c r="AO59" s="50"/>
-      <c r="AP59" s="50"/>
-      <c r="AQ59" s="50"/>
-      <c r="AR59" s="50"/>
-      <c r="AS59" s="50"/>
-      <c r="AT59" s="50"/>
-      <c r="AU59" s="50"/>
-      <c r="AV59" s="50"/>
-      <c r="AW59" s="50"/>
-      <c r="AX59" s="50"/>
-      <c r="AY59" s="50"/>
-      <c r="AZ59" s="50"/>
-      <c r="BA59" s="50"/>
-      <c r="BB59" s="50"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="47"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="47"/>
+      <c r="AE59" s="47"/>
+      <c r="AF59" s="47"/>
+      <c r="AG59" s="47"/>
+      <c r="AH59" s="47"/>
+      <c r="AI59" s="47"/>
+      <c r="AJ59" s="47"/>
+      <c r="AK59" s="47"/>
+      <c r="AL59" s="47"/>
+      <c r="AM59" s="47"/>
+      <c r="AN59" s="47"/>
+      <c r="AO59" s="47"/>
+      <c r="AP59" s="47"/>
+      <c r="AQ59" s="47"/>
+      <c r="AR59" s="47"/>
+      <c r="AS59" s="47"/>
+      <c r="AT59" s="47"/>
+      <c r="AU59" s="47"/>
+      <c r="AV59" s="47"/>
+      <c r="AW59" s="47"/>
+      <c r="AX59" s="47"/>
+      <c r="AY59" s="47"/>
+      <c r="AZ59" s="47"/>
+      <c r="BA59" s="47"/>
+      <c r="BB59" s="47"/>
     </row>
     <row r="60" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-      <c r="Z60" s="50"/>
-      <c r="AA60" s="50"/>
-      <c r="AB60" s="50"/>
-      <c r="AC60" s="50"/>
-      <c r="AD60" s="50"/>
-      <c r="AE60" s="50"/>
-      <c r="AF60" s="50"/>
-      <c r="AG60" s="50"/>
-      <c r="AH60" s="50"/>
-      <c r="AI60" s="50"/>
-      <c r="AJ60" s="50"/>
-      <c r="AK60" s="50"/>
-      <c r="AL60" s="50"/>
-      <c r="AM60" s="50"/>
-      <c r="AN60" s="50"/>
-      <c r="AO60" s="50"/>
-      <c r="AP60" s="50"/>
-      <c r="AQ60" s="50"/>
-      <c r="AR60" s="50"/>
-      <c r="AS60" s="50"/>
-      <c r="AT60" s="50"/>
-      <c r="AU60" s="50"/>
-      <c r="AV60" s="50"/>
-      <c r="AW60" s="50"/>
-      <c r="AX60" s="50"/>
-      <c r="AY60" s="50"/>
-      <c r="AZ60" s="50"/>
-      <c r="BA60" s="50"/>
-      <c r="BB60" s="50"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="47"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="47"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="47"/>
+      <c r="AF60" s="47"/>
+      <c r="AG60" s="47"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="47"/>
+      <c r="AK60" s="47"/>
+      <c r="AL60" s="47"/>
+      <c r="AM60" s="47"/>
+      <c r="AN60" s="47"/>
+      <c r="AO60" s="47"/>
+      <c r="AP60" s="47"/>
+      <c r="AQ60" s="47"/>
+      <c r="AR60" s="47"/>
+      <c r="AS60" s="47"/>
+      <c r="AT60" s="47"/>
+      <c r="AU60" s="47"/>
+      <c r="AV60" s="47"/>
+      <c r="AW60" s="47"/>
+      <c r="AX60" s="47"/>
+      <c r="AY60" s="47"/>
+      <c r="AZ60" s="47"/>
+      <c r="BA60" s="47"/>
+      <c r="BB60" s="47"/>
     </row>
     <row r="61" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="50"/>
-      <c r="Z61" s="50"/>
-      <c r="AA61" s="50"/>
-      <c r="AB61" s="50"/>
-      <c r="AC61" s="50"/>
-      <c r="AD61" s="50"/>
-      <c r="AE61" s="50"/>
-      <c r="AF61" s="50"/>
-      <c r="AG61" s="50"/>
-      <c r="AH61" s="50"/>
-      <c r="AI61" s="50"/>
-      <c r="AJ61" s="50"/>
-      <c r="AK61" s="50"/>
-      <c r="AL61" s="50"/>
-      <c r="AM61" s="50"/>
-      <c r="AN61" s="50"/>
-      <c r="AO61" s="50"/>
-      <c r="AP61" s="50"/>
-      <c r="AQ61" s="50"/>
-      <c r="AR61" s="50"/>
-      <c r="AS61" s="50"/>
-      <c r="AT61" s="50"/>
-      <c r="AU61" s="50"/>
-      <c r="AV61" s="50"/>
-      <c r="AW61" s="50"/>
-      <c r="AX61" s="50"/>
-      <c r="AY61" s="50"/>
-      <c r="AZ61" s="50"/>
-      <c r="BA61" s="50"/>
-      <c r="BB61" s="50"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="47"/>
+      <c r="T61" s="47"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="47"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="47"/>
+      <c r="AL61" s="47"/>
+      <c r="AM61" s="47"/>
+      <c r="AN61" s="47"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
+      <c r="AQ61" s="47"/>
+      <c r="AR61" s="47"/>
+      <c r="AS61" s="47"/>
+      <c r="AT61" s="47"/>
+      <c r="AU61" s="47"/>
+      <c r="AV61" s="47"/>
+      <c r="AW61" s="47"/>
+      <c r="AX61" s="47"/>
+      <c r="AY61" s="47"/>
+      <c r="AZ61" s="47"/>
+      <c r="BA61" s="47"/>
+      <c r="BB61" s="47"/>
     </row>
     <row r="62" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
-      <c r="W62" s="50"/>
-      <c r="X62" s="50"/>
-      <c r="Y62" s="50"/>
-      <c r="Z62" s="50"/>
-      <c r="AA62" s="50"/>
-      <c r="AB62" s="50"/>
-      <c r="AC62" s="50"/>
-      <c r="AD62" s="50"/>
-      <c r="AE62" s="50"/>
-      <c r="AF62" s="50"/>
-      <c r="AG62" s="50"/>
-      <c r="AH62" s="50"/>
-      <c r="AI62" s="50"/>
-      <c r="AJ62" s="50"/>
-      <c r="AK62" s="50"/>
-      <c r="AL62" s="50"/>
-      <c r="AM62" s="50"/>
-      <c r="AN62" s="50"/>
-      <c r="AO62" s="50"/>
-      <c r="AP62" s="50"/>
-      <c r="AQ62" s="50"/>
-      <c r="AR62" s="50"/>
-      <c r="AS62" s="50"/>
-      <c r="AT62" s="50"/>
-      <c r="AU62" s="50"/>
-      <c r="AV62" s="50"/>
-      <c r="AW62" s="50"/>
-      <c r="AX62" s="50"/>
-      <c r="AY62" s="50"/>
-      <c r="AZ62" s="50"/>
-      <c r="BA62" s="50"/>
-      <c r="BB62" s="50"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="47"/>
+      <c r="Z62" s="47"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="47"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="47"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="47"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="47"/>
+      <c r="AL62" s="47"/>
+      <c r="AM62" s="47"/>
+      <c r="AN62" s="47"/>
+      <c r="AO62" s="47"/>
+      <c r="AP62" s="47"/>
+      <c r="AQ62" s="47"/>
+      <c r="AR62" s="47"/>
+      <c r="AS62" s="47"/>
+      <c r="AT62" s="47"/>
+      <c r="AU62" s="47"/>
+      <c r="AV62" s="47"/>
+      <c r="AW62" s="47"/>
+      <c r="AX62" s="47"/>
+      <c r="AY62" s="47"/>
+      <c r="AZ62" s="47"/>
+      <c r="BA62" s="47"/>
+      <c r="BB62" s="47"/>
     </row>
     <row r="63" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50"/>
-      <c r="W63" s="50"/>
-      <c r="X63" s="50"/>
-      <c r="Y63" s="50"/>
-      <c r="Z63" s="50"/>
-      <c r="AA63" s="50"/>
-      <c r="AB63" s="50"/>
-      <c r="AC63" s="50"/>
-      <c r="AD63" s="50"/>
-      <c r="AE63" s="50"/>
-      <c r="AF63" s="50"/>
-      <c r="AG63" s="50"/>
-      <c r="AH63" s="50"/>
-      <c r="AI63" s="50"/>
-      <c r="AJ63" s="50"/>
-      <c r="AK63" s="50"/>
-      <c r="AL63" s="50"/>
-      <c r="AM63" s="50"/>
-      <c r="AN63" s="50"/>
-      <c r="AO63" s="50"/>
-      <c r="AP63" s="50"/>
-      <c r="AQ63" s="50"/>
-      <c r="AR63" s="50"/>
-      <c r="AS63" s="50"/>
-      <c r="AT63" s="50"/>
-      <c r="AU63" s="50"/>
-      <c r="AV63" s="50"/>
-      <c r="AW63" s="50"/>
-      <c r="AX63" s="50"/>
-      <c r="AY63" s="50"/>
-      <c r="AZ63" s="50"/>
-      <c r="BA63" s="50"/>
-      <c r="BB63" s="50"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="47"/>
+      <c r="Z63" s="47"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="47"/>
+      <c r="AE63" s="47"/>
+      <c r="AF63" s="47"/>
+      <c r="AG63" s="47"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="47"/>
+      <c r="AJ63" s="47"/>
+      <c r="AK63" s="47"/>
+      <c r="AL63" s="47"/>
+      <c r="AM63" s="47"/>
+      <c r="AN63" s="47"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
+      <c r="AQ63" s="47"/>
+      <c r="AR63" s="47"/>
+      <c r="AS63" s="47"/>
+      <c r="AT63" s="47"/>
+      <c r="AU63" s="47"/>
+      <c r="AV63" s="47"/>
+      <c r="AW63" s="47"/>
+      <c r="AX63" s="47"/>
+      <c r="AY63" s="47"/>
+      <c r="AZ63" s="47"/>
+      <c r="BA63" s="47"/>
+      <c r="BB63" s="47"/>
     </row>
     <row r="64" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-      <c r="Z64" s="50"/>
-      <c r="AA64" s="50"/>
-      <c r="AB64" s="50"/>
-      <c r="AC64" s="50"/>
-      <c r="AD64" s="50"/>
-      <c r="AE64" s="50"/>
-      <c r="AF64" s="50"/>
-      <c r="AG64" s="50"/>
-      <c r="AH64" s="50"/>
-      <c r="AI64" s="50"/>
-      <c r="AJ64" s="50"/>
-      <c r="AK64" s="50"/>
-      <c r="AL64" s="50"/>
-      <c r="AM64" s="50"/>
-      <c r="AN64" s="50"/>
-      <c r="AO64" s="50"/>
-      <c r="AP64" s="50"/>
-      <c r="AQ64" s="50"/>
-      <c r="AR64" s="50"/>
-      <c r="AS64" s="50"/>
-      <c r="AT64" s="50"/>
-      <c r="AU64" s="50"/>
-      <c r="AV64" s="50"/>
-      <c r="AW64" s="50"/>
-      <c r="AX64" s="50"/>
-      <c r="AY64" s="50"/>
-      <c r="AZ64" s="50"/>
-      <c r="BA64" s="50"/>
-      <c r="BB64" s="50"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="47"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="47"/>
+      <c r="AE64" s="47"/>
+      <c r="AF64" s="47"/>
+      <c r="AG64" s="47"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="47"/>
+      <c r="AJ64" s="47"/>
+      <c r="AK64" s="47"/>
+      <c r="AL64" s="47"/>
+      <c r="AM64" s="47"/>
+      <c r="AN64" s="47"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
+      <c r="AQ64" s="47"/>
+      <c r="AR64" s="47"/>
+      <c r="AS64" s="47"/>
+      <c r="AT64" s="47"/>
+      <c r="AU64" s="47"/>
+      <c r="AV64" s="47"/>
+      <c r="AW64" s="47"/>
+      <c r="AX64" s="47"/>
+      <c r="AY64" s="47"/>
+      <c r="AZ64" s="47"/>
+      <c r="BA64" s="47"/>
+      <c r="BB64" s="47"/>
     </row>
     <row r="65" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="50"/>
-      <c r="O65" s="50"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="50"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="50"/>
-      <c r="W65" s="50"/>
-      <c r="X65" s="50"/>
-      <c r="Y65" s="50"/>
-      <c r="Z65" s="50"/>
-      <c r="AA65" s="50"/>
-      <c r="AB65" s="50"/>
-      <c r="AC65" s="50"/>
-      <c r="AD65" s="50"/>
-      <c r="AE65" s="50"/>
-      <c r="AF65" s="50"/>
-      <c r="AG65" s="50"/>
-      <c r="AH65" s="50"/>
-      <c r="AI65" s="50"/>
-      <c r="AJ65" s="50"/>
-      <c r="AK65" s="50"/>
-      <c r="AL65" s="50"/>
-      <c r="AM65" s="50"/>
-      <c r="AN65" s="50"/>
-      <c r="AO65" s="50"/>
-      <c r="AP65" s="50"/>
-      <c r="AQ65" s="50"/>
-      <c r="AR65" s="50"/>
-      <c r="AS65" s="50"/>
-      <c r="AT65" s="50"/>
-      <c r="AU65" s="50"/>
-      <c r="AV65" s="50"/>
-      <c r="AW65" s="50"/>
-      <c r="AX65" s="50"/>
-      <c r="AY65" s="50"/>
-      <c r="AZ65" s="50"/>
-      <c r="BA65" s="50"/>
-      <c r="BB65" s="50"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="47"/>
+      <c r="AE65" s="47"/>
+      <c r="AF65" s="47"/>
+      <c r="AG65" s="47"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="47"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="47"/>
+      <c r="AL65" s="47"/>
+      <c r="AM65" s="47"/>
+      <c r="AN65" s="47"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="47"/>
+      <c r="AQ65" s="47"/>
+      <c r="AR65" s="47"/>
+      <c r="AS65" s="47"/>
+      <c r="AT65" s="47"/>
+      <c r="AU65" s="47"/>
+      <c r="AV65" s="47"/>
+      <c r="AW65" s="47"/>
+      <c r="AX65" s="47"/>
+      <c r="AY65" s="47"/>
+      <c r="AZ65" s="47"/>
+      <c r="BA65" s="47"/>
+      <c r="BB65" s="47"/>
     </row>
     <row r="66" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="50"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="50"/>
-      <c r="W66" s="50"/>
-      <c r="X66" s="50"/>
-      <c r="Y66" s="50"/>
-      <c r="Z66" s="50"/>
-      <c r="AA66" s="50"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="50"/>
-      <c r="AD66" s="50"/>
-      <c r="AE66" s="50"/>
-      <c r="AF66" s="50"/>
-      <c r="AG66" s="50"/>
-      <c r="AH66" s="50"/>
-      <c r="AI66" s="50"/>
-      <c r="AJ66" s="50"/>
-      <c r="AK66" s="50"/>
-      <c r="AL66" s="50"/>
-      <c r="AM66" s="50"/>
-      <c r="AN66" s="50"/>
-      <c r="AO66" s="50"/>
-      <c r="AP66" s="50"/>
-      <c r="AQ66" s="50"/>
-      <c r="AR66" s="50"/>
-      <c r="AS66" s="50"/>
-      <c r="AT66" s="50"/>
-      <c r="AU66" s="50"/>
-      <c r="AV66" s="50"/>
-      <c r="AW66" s="50"/>
-      <c r="AX66" s="50"/>
-      <c r="AY66" s="50"/>
-      <c r="AZ66" s="50"/>
-      <c r="BA66" s="50"/>
-      <c r="BB66" s="50"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="47"/>
+      <c r="T66" s="47"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="47"/>
+      <c r="AB66" s="47"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="47"/>
+      <c r="AE66" s="47"/>
+      <c r="AF66" s="47"/>
+      <c r="AG66" s="47"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="47"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="47"/>
+      <c r="AL66" s="47"/>
+      <c r="AM66" s="47"/>
+      <c r="AN66" s="47"/>
+      <c r="AO66" s="47"/>
+      <c r="AP66" s="47"/>
+      <c r="AQ66" s="47"/>
+      <c r="AR66" s="47"/>
+      <c r="AS66" s="47"/>
+      <c r="AT66" s="47"/>
+      <c r="AU66" s="47"/>
+      <c r="AV66" s="47"/>
+      <c r="AW66" s="47"/>
+      <c r="AX66" s="47"/>
+      <c r="AY66" s="47"/>
+      <c r="AZ66" s="47"/>
+      <c r="BA66" s="47"/>
+      <c r="BB66" s="47"/>
     </row>
     <row r="67" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
-      <c r="W67" s="50"/>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="50"/>
-      <c r="AA67" s="50"/>
-      <c r="AB67" s="50"/>
-      <c r="AC67" s="50"/>
-      <c r="AD67" s="50"/>
-      <c r="AE67" s="50"/>
-      <c r="AF67" s="50"/>
-      <c r="AG67" s="50"/>
-      <c r="AH67" s="50"/>
-      <c r="AI67" s="50"/>
-      <c r="AJ67" s="50"/>
-      <c r="AK67" s="50"/>
-      <c r="AL67" s="50"/>
-      <c r="AM67" s="50"/>
-      <c r="AN67" s="50"/>
-      <c r="AO67" s="50"/>
-      <c r="AP67" s="50"/>
-      <c r="AQ67" s="50"/>
-      <c r="AR67" s="50"/>
-      <c r="AS67" s="50"/>
-      <c r="AT67" s="50"/>
-      <c r="AU67" s="50"/>
-      <c r="AV67" s="50"/>
-      <c r="AW67" s="50"/>
-      <c r="AX67" s="50"/>
-      <c r="AY67" s="50"/>
-      <c r="AZ67" s="50"/>
-      <c r="BA67" s="50"/>
-      <c r="BB67" s="50"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="47"/>
+      <c r="T67" s="47"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="47"/>
+      <c r="Z67" s="47"/>
+      <c r="AA67" s="47"/>
+      <c r="AB67" s="47"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="47"/>
+      <c r="AE67" s="47"/>
+      <c r="AF67" s="47"/>
+      <c r="AG67" s="47"/>
+      <c r="AH67" s="47"/>
+      <c r="AI67" s="47"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="47"/>
+      <c r="AM67" s="47"/>
+      <c r="AN67" s="47"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="47"/>
+      <c r="AR67" s="47"/>
+      <c r="AS67" s="47"/>
+      <c r="AT67" s="47"/>
+      <c r="AU67" s="47"/>
+      <c r="AV67" s="47"/>
+      <c r="AW67" s="47"/>
+      <c r="AX67" s="47"/>
+      <c r="AY67" s="47"/>
+      <c r="AZ67" s="47"/>
+      <c r="BA67" s="47"/>
+      <c r="BB67" s="47"/>
     </row>
     <row r="68" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="50"/>
-      <c r="AA68" s="50"/>
-      <c r="AB68" s="50"/>
-      <c r="AC68" s="50"/>
-      <c r="AD68" s="50"/>
-      <c r="AE68" s="50"/>
-      <c r="AF68" s="50"/>
-      <c r="AG68" s="50"/>
-      <c r="AH68" s="50"/>
-      <c r="AI68" s="50"/>
-      <c r="AJ68" s="50"/>
-      <c r="AK68" s="50"/>
-      <c r="AL68" s="50"/>
-      <c r="AM68" s="50"/>
-      <c r="AN68" s="50"/>
-      <c r="AO68" s="50"/>
-      <c r="AP68" s="50"/>
-      <c r="AQ68" s="50"/>
-      <c r="AR68" s="50"/>
-      <c r="AS68" s="50"/>
-      <c r="AT68" s="50"/>
-      <c r="AU68" s="50"/>
-      <c r="AV68" s="50"/>
-      <c r="AW68" s="50"/>
-      <c r="AX68" s="50"/>
-      <c r="AY68" s="50"/>
-      <c r="AZ68" s="50"/>
-      <c r="BA68" s="50"/>
-      <c r="BB68" s="50"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="47"/>
+      <c r="AF68" s="47"/>
+      <c r="AG68" s="47"/>
+      <c r="AH68" s="47"/>
+      <c r="AI68" s="47"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="47"/>
+      <c r="AL68" s="47"/>
+      <c r="AM68" s="47"/>
+      <c r="AN68" s="47"/>
+      <c r="AO68" s="47"/>
+      <c r="AP68" s="47"/>
+      <c r="AQ68" s="47"/>
+      <c r="AR68" s="47"/>
+      <c r="AS68" s="47"/>
+      <c r="AT68" s="47"/>
+      <c r="AU68" s="47"/>
+      <c r="AV68" s="47"/>
+      <c r="AW68" s="47"/>
+      <c r="AX68" s="47"/>
+      <c r="AY68" s="47"/>
+      <c r="AZ68" s="47"/>
+      <c r="BA68" s="47"/>
+      <c r="BB68" s="47"/>
     </row>
     <row r="69" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="50"/>
-      <c r="AJ69" s="50"/>
-      <c r="AK69" s="50"/>
-      <c r="AL69" s="50"/>
-      <c r="AM69" s="50"/>
-      <c r="AN69" s="50"/>
-      <c r="AO69" s="50"/>
-      <c r="AP69" s="50"/>
-      <c r="AQ69" s="50"/>
-      <c r="AR69" s="50"/>
-      <c r="AS69" s="50"/>
-      <c r="AT69" s="50"/>
-      <c r="AU69" s="50"/>
-      <c r="AV69" s="50"/>
-      <c r="AW69" s="50"/>
-      <c r="AX69" s="50"/>
-      <c r="AY69" s="50"/>
-      <c r="AZ69" s="50"/>
-      <c r="BA69" s="50"/>
-      <c r="BB69" s="50"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="47"/>
+      <c r="AF69" s="47"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="47"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="47"/>
+      <c r="AN69" s="47"/>
+      <c r="AO69" s="47"/>
+      <c r="AP69" s="47"/>
+      <c r="AQ69" s="47"/>
+      <c r="AR69" s="47"/>
+      <c r="AS69" s="47"/>
+      <c r="AT69" s="47"/>
+      <c r="AU69" s="47"/>
+      <c r="AV69" s="47"/>
+      <c r="AW69" s="47"/>
+      <c r="AX69" s="47"/>
+      <c r="AY69" s="47"/>
+      <c r="AZ69" s="47"/>
+      <c r="BA69" s="47"/>
+      <c r="BB69" s="47"/>
     </row>
     <row r="70" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50"/>
-      <c r="X70" s="50"/>
-      <c r="Y70" s="50"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="50"/>
-      <c r="AB70" s="50"/>
-      <c r="AC70" s="50"/>
-      <c r="AD70" s="50"/>
-      <c r="AE70" s="50"/>
-      <c r="AF70" s="50"/>
-      <c r="AG70" s="50"/>
-      <c r="AH70" s="50"/>
-      <c r="AI70" s="50"/>
-      <c r="AJ70" s="50"/>
-      <c r="AK70" s="50"/>
-      <c r="AL70" s="50"/>
-      <c r="AM70" s="50"/>
-      <c r="AN70" s="50"/>
-      <c r="AO70" s="50"/>
-      <c r="AP70" s="50"/>
-      <c r="AQ70" s="50"/>
-      <c r="AR70" s="50"/>
-      <c r="AS70" s="50"/>
-      <c r="AT70" s="50"/>
-      <c r="AU70" s="50"/>
-      <c r="AV70" s="50"/>
-      <c r="AW70" s="50"/>
-      <c r="AX70" s="50"/>
-      <c r="AY70" s="50"/>
-      <c r="AZ70" s="50"/>
-      <c r="BA70" s="50"/>
-      <c r="BB70" s="50"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="47"/>
+      <c r="AF70" s="47"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="47"/>
+      <c r="AI70" s="47"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="47"/>
+      <c r="AL70" s="47"/>
+      <c r="AM70" s="47"/>
+      <c r="AN70" s="47"/>
+      <c r="AO70" s="47"/>
+      <c r="AP70" s="47"/>
+      <c r="AQ70" s="47"/>
+      <c r="AR70" s="47"/>
+      <c r="AS70" s="47"/>
+      <c r="AT70" s="47"/>
+      <c r="AU70" s="47"/>
+      <c r="AV70" s="47"/>
+      <c r="AW70" s="47"/>
+      <c r="AX70" s="47"/>
+      <c r="AY70" s="47"/>
+      <c r="AZ70" s="47"/>
+      <c r="BA70" s="47"/>
+      <c r="BB70" s="47"/>
     </row>
     <row r="71" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
-      <c r="R71" s="50"/>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50"/>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50"/>
-      <c r="W71" s="50"/>
-      <c r="X71" s="50"/>
-      <c r="Y71" s="50"/>
-      <c r="Z71" s="50"/>
-      <c r="AA71" s="50"/>
-      <c r="AB71" s="50"/>
-      <c r="AC71" s="50"/>
-      <c r="AD71" s="50"/>
-      <c r="AE71" s="50"/>
-      <c r="AF71" s="50"/>
-      <c r="AG71" s="50"/>
-      <c r="AH71" s="50"/>
-      <c r="AI71" s="50"/>
-      <c r="AJ71" s="50"/>
-      <c r="AK71" s="50"/>
-      <c r="AL71" s="50"/>
-      <c r="AM71" s="50"/>
-      <c r="AN71" s="50"/>
-      <c r="AO71" s="50"/>
-      <c r="AP71" s="50"/>
-      <c r="AQ71" s="50"/>
-      <c r="AR71" s="50"/>
-      <c r="AS71" s="50"/>
-      <c r="AT71" s="50"/>
-      <c r="AU71" s="50"/>
-      <c r="AV71" s="50"/>
-      <c r="AW71" s="50"/>
-      <c r="AX71" s="50"/>
-      <c r="AY71" s="50"/>
-      <c r="AZ71" s="50"/>
-      <c r="BA71" s="50"/>
-      <c r="BB71" s="50"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="47"/>
+      <c r="Z71" s="47"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="47"/>
+      <c r="AF71" s="47"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="47"/>
+      <c r="AI71" s="47"/>
+      <c r="AJ71" s="47"/>
+      <c r="AK71" s="47"/>
+      <c r="AL71" s="47"/>
+      <c r="AM71" s="47"/>
+      <c r="AN71" s="47"/>
+      <c r="AO71" s="47"/>
+      <c r="AP71" s="47"/>
+      <c r="AQ71" s="47"/>
+      <c r="AR71" s="47"/>
+      <c r="AS71" s="47"/>
+      <c r="AT71" s="47"/>
+      <c r="AU71" s="47"/>
+      <c r="AV71" s="47"/>
+      <c r="AW71" s="47"/>
+      <c r="AX71" s="47"/>
+      <c r="AY71" s="47"/>
+      <c r="AZ71" s="47"/>
+      <c r="BA71" s="47"/>
+      <c r="BB71" s="47"/>
     </row>
     <row r="72" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="50"/>
-      <c r="X72" s="50"/>
-      <c r="Y72" s="50"/>
-      <c r="Z72" s="50"/>
-      <c r="AA72" s="50"/>
-      <c r="AB72" s="50"/>
-      <c r="AC72" s="50"/>
-      <c r="AD72" s="50"/>
-      <c r="AE72" s="50"/>
-      <c r="AF72" s="50"/>
-      <c r="AG72" s="50"/>
-      <c r="AH72" s="50"/>
-      <c r="AI72" s="50"/>
-      <c r="AJ72" s="50"/>
-      <c r="AK72" s="50"/>
-      <c r="AL72" s="50"/>
-      <c r="AM72" s="50"/>
-      <c r="AN72" s="50"/>
-      <c r="AO72" s="50"/>
-      <c r="AP72" s="50"/>
-      <c r="AQ72" s="50"/>
-      <c r="AR72" s="50"/>
-      <c r="AS72" s="50"/>
-      <c r="AT72" s="50"/>
-      <c r="AU72" s="50"/>
-      <c r="AV72" s="50"/>
-      <c r="AW72" s="50"/>
-      <c r="AX72" s="50"/>
-      <c r="AY72" s="50"/>
-      <c r="AZ72" s="50"/>
-      <c r="BA72" s="50"/>
-      <c r="BB72" s="50"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="47"/>
+      <c r="S72" s="47"/>
+      <c r="T72" s="47"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
+      <c r="X72" s="47"/>
+      <c r="Y72" s="47"/>
+      <c r="Z72" s="47"/>
+      <c r="AA72" s="47"/>
+      <c r="AB72" s="47"/>
+      <c r="AC72" s="47"/>
+      <c r="AD72" s="47"/>
+      <c r="AE72" s="47"/>
+      <c r="AF72" s="47"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="47"/>
+      <c r="AJ72" s="47"/>
+      <c r="AK72" s="47"/>
+      <c r="AL72" s="47"/>
+      <c r="AM72" s="47"/>
+      <c r="AN72" s="47"/>
+      <c r="AO72" s="47"/>
+      <c r="AP72" s="47"/>
+      <c r="AQ72" s="47"/>
+      <c r="AR72" s="47"/>
+      <c r="AS72" s="47"/>
+      <c r="AT72" s="47"/>
+      <c r="AU72" s="47"/>
+      <c r="AV72" s="47"/>
+      <c r="AW72" s="47"/>
+      <c r="AX72" s="47"/>
+      <c r="AY72" s="47"/>
+      <c r="AZ72" s="47"/>
+      <c r="BA72" s="47"/>
+      <c r="BB72" s="47"/>
     </row>
     <row r="73" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
-      <c r="AI73" s="50"/>
-      <c r="AJ73" s="50"/>
-      <c r="AK73" s="50"/>
-      <c r="AL73" s="50"/>
-      <c r="AM73" s="50"/>
-      <c r="AN73" s="50"/>
-      <c r="AO73" s="50"/>
-      <c r="AP73" s="50"/>
-      <c r="AQ73" s="50"/>
-      <c r="AR73" s="50"/>
-      <c r="AS73" s="50"/>
-      <c r="AT73" s="50"/>
-      <c r="AU73" s="50"/>
-      <c r="AV73" s="50"/>
-      <c r="AW73" s="50"/>
-      <c r="AX73" s="50"/>
-      <c r="AY73" s="50"/>
-      <c r="AZ73" s="50"/>
-      <c r="BA73" s="50"/>
-      <c r="BB73" s="50"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="47"/>
+      <c r="AD73" s="47"/>
+      <c r="AE73" s="47"/>
+      <c r="AF73" s="47"/>
+      <c r="AG73" s="47"/>
+      <c r="AH73" s="47"/>
+      <c r="AI73" s="47"/>
+      <c r="AJ73" s="47"/>
+      <c r="AK73" s="47"/>
+      <c r="AL73" s="47"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="47"/>
+      <c r="AQ73" s="47"/>
+      <c r="AR73" s="47"/>
+      <c r="AS73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="47"/>
+      <c r="AV73" s="47"/>
+      <c r="AW73" s="47"/>
+      <c r="AX73" s="47"/>
+      <c r="AY73" s="47"/>
+      <c r="AZ73" s="47"/>
+      <c r="BA73" s="47"/>
+      <c r="BB73" s="47"/>
     </row>
     <row r="74" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="50"/>
-      <c r="X74" s="50"/>
-      <c r="Y74" s="50"/>
-      <c r="Z74" s="50"/>
-      <c r="AA74" s="50"/>
-      <c r="AB74" s="50"/>
-      <c r="AC74" s="50"/>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="50"/>
-      <c r="AK74" s="50"/>
-      <c r="AL74" s="50"/>
-      <c r="AM74" s="50"/>
-      <c r="AN74" s="50"/>
-      <c r="AO74" s="50"/>
-      <c r="AP74" s="50"/>
-      <c r="AQ74" s="50"/>
-      <c r="AR74" s="50"/>
-      <c r="AS74" s="50"/>
-      <c r="AT74" s="50"/>
-      <c r="AU74" s="50"/>
-      <c r="AV74" s="50"/>
-      <c r="AW74" s="50"/>
-      <c r="AX74" s="50"/>
-      <c r="AY74" s="50"/>
-      <c r="AZ74" s="50"/>
-      <c r="BA74" s="50"/>
-      <c r="BB74" s="50"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
+      <c r="T74" s="47"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47"/>
+      <c r="AA74" s="47"/>
+      <c r="AB74" s="47"/>
+      <c r="AC74" s="47"/>
+      <c r="AD74" s="47"/>
+      <c r="AE74" s="47"/>
+      <c r="AF74" s="47"/>
+      <c r="AG74" s="47"/>
+      <c r="AH74" s="47"/>
+      <c r="AI74" s="47"/>
+      <c r="AJ74" s="47"/>
+      <c r="AK74" s="47"/>
+      <c r="AL74" s="47"/>
+      <c r="AM74" s="47"/>
+      <c r="AN74" s="47"/>
+      <c r="AO74" s="47"/>
+      <c r="AP74" s="47"/>
+      <c r="AQ74" s="47"/>
+      <c r="AR74" s="47"/>
+      <c r="AS74" s="47"/>
+      <c r="AT74" s="47"/>
+      <c r="AU74" s="47"/>
+      <c r="AV74" s="47"/>
+      <c r="AW74" s="47"/>
+      <c r="AX74" s="47"/>
+      <c r="AY74" s="47"/>
+      <c r="AZ74" s="47"/>
+      <c r="BA74" s="47"/>
+      <c r="BB74" s="47"/>
     </row>
     <row r="75" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="50"/>
-      <c r="V75" s="50"/>
-      <c r="W75" s="50"/>
-      <c r="X75" s="50"/>
-      <c r="Y75" s="50"/>
-      <c r="Z75" s="50"/>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="50"/>
-      <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="50"/>
-      <c r="AJ75" s="50"/>
-      <c r="AK75" s="50"/>
-      <c r="AL75" s="50"/>
-      <c r="AM75" s="50"/>
-      <c r="AN75" s="50"/>
-      <c r="AO75" s="50"/>
-      <c r="AP75" s="50"/>
-      <c r="AQ75" s="50"/>
-      <c r="AR75" s="50"/>
-      <c r="AS75" s="50"/>
-      <c r="AT75" s="50"/>
-      <c r="AU75" s="50"/>
-      <c r="AV75" s="50"/>
-      <c r="AW75" s="50"/>
-      <c r="AX75" s="50"/>
-      <c r="AY75" s="50"/>
-      <c r="AZ75" s="50"/>
-      <c r="BA75" s="50"/>
-      <c r="BB75" s="50"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="47"/>
+      <c r="S75" s="47"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="47"/>
+      <c r="Z75" s="47"/>
+      <c r="AA75" s="47"/>
+      <c r="AB75" s="47"/>
+      <c r="AC75" s="47"/>
+      <c r="AD75" s="47"/>
+      <c r="AE75" s="47"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+      <c r="AJ75" s="47"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="47"/>
+      <c r="AW75" s="47"/>
+      <c r="AX75" s="47"/>
+      <c r="AY75" s="47"/>
+      <c r="AZ75" s="47"/>
+      <c r="BA75" s="47"/>
+      <c r="BB75" s="47"/>
     </row>
     <row r="76" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="50"/>
-      <c r="V76" s="50"/>
-      <c r="W76" s="50"/>
-      <c r="X76" s="50"/>
-      <c r="Y76" s="50"/>
-      <c r="Z76" s="50"/>
-      <c r="AA76" s="50"/>
-      <c r="AB76" s="50"/>
-      <c r="AC76" s="50"/>
-      <c r="AD76" s="50"/>
-      <c r="AE76" s="50"/>
-      <c r="AF76" s="50"/>
-      <c r="AG76" s="50"/>
-      <c r="AH76" s="50"/>
-      <c r="AI76" s="50"/>
-      <c r="AJ76" s="50"/>
-      <c r="AK76" s="50"/>
-      <c r="AL76" s="50"/>
-      <c r="AM76" s="50"/>
-      <c r="AN76" s="50"/>
-      <c r="AO76" s="50"/>
-      <c r="AP76" s="50"/>
-      <c r="AQ76" s="50"/>
-      <c r="AR76" s="50"/>
-      <c r="AS76" s="50"/>
-      <c r="AT76" s="50"/>
-      <c r="AU76" s="50"/>
-      <c r="AV76" s="50"/>
-      <c r="AW76" s="50"/>
-      <c r="AX76" s="50"/>
-      <c r="AY76" s="50"/>
-      <c r="AZ76" s="50"/>
-      <c r="BA76" s="50"/>
-      <c r="BB76" s="50"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47"/>
+      <c r="Z76" s="47"/>
+      <c r="AA76" s="47"/>
+      <c r="AB76" s="47"/>
+      <c r="AC76" s="47"/>
+      <c r="AD76" s="47"/>
+      <c r="AE76" s="47"/>
+      <c r="AF76" s="47"/>
+      <c r="AG76" s="47"/>
+      <c r="AH76" s="47"/>
+      <c r="AI76" s="47"/>
+      <c r="AJ76" s="47"/>
+      <c r="AK76" s="47"/>
+      <c r="AL76" s="47"/>
+      <c r="AM76" s="47"/>
+      <c r="AN76" s="47"/>
+      <c r="AO76" s="47"/>
+      <c r="AP76" s="47"/>
+      <c r="AQ76" s="47"/>
+      <c r="AR76" s="47"/>
+      <c r="AS76" s="47"/>
+      <c r="AT76" s="47"/>
+      <c r="AU76" s="47"/>
+      <c r="AV76" s="47"/>
+      <c r="AW76" s="47"/>
+      <c r="AX76" s="47"/>
+      <c r="AY76" s="47"/>
+      <c r="AZ76" s="47"/>
+      <c r="BA76" s="47"/>
+      <c r="BB76" s="47"/>
     </row>
     <row r="77" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
-      <c r="R77" s="50"/>
-      <c r="S77" s="50"/>
-      <c r="T77" s="50"/>
-      <c r="U77" s="50"/>
-      <c r="V77" s="50"/>
-      <c r="W77" s="50"/>
-      <c r="X77" s="50"/>
-      <c r="Y77" s="50"/>
-      <c r="Z77" s="50"/>
-      <c r="AA77" s="50"/>
-      <c r="AB77" s="50"/>
-      <c r="AC77" s="50"/>
-      <c r="AD77" s="50"/>
-      <c r="AE77" s="50"/>
-      <c r="AF77" s="50"/>
-      <c r="AG77" s="50"/>
-      <c r="AH77" s="50"/>
-      <c r="AI77" s="50"/>
-      <c r="AJ77" s="50"/>
-      <c r="AK77" s="50"/>
-      <c r="AL77" s="50"/>
-      <c r="AM77" s="50"/>
-      <c r="AN77" s="50"/>
-      <c r="AO77" s="50"/>
-      <c r="AP77" s="50"/>
-      <c r="AQ77" s="50"/>
-      <c r="AR77" s="50"/>
-      <c r="AS77" s="50"/>
-      <c r="AT77" s="50"/>
-      <c r="AU77" s="50"/>
-      <c r="AV77" s="50"/>
-      <c r="AW77" s="50"/>
-      <c r="AX77" s="50"/>
-      <c r="AY77" s="50"/>
-      <c r="AZ77" s="50"/>
-      <c r="BA77" s="50"/>
-      <c r="BB77" s="50"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="47"/>
+      <c r="S77" s="47"/>
+      <c r="T77" s="47"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="47"/>
+      <c r="Z77" s="47"/>
+      <c r="AA77" s="47"/>
+      <c r="AB77" s="47"/>
+      <c r="AC77" s="47"/>
+      <c r="AD77" s="47"/>
+      <c r="AE77" s="47"/>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="47"/>
+      <c r="AL77" s="47"/>
+      <c r="AM77" s="47"/>
+      <c r="AN77" s="47"/>
+      <c r="AO77" s="47"/>
+      <c r="AP77" s="47"/>
+      <c r="AQ77" s="47"/>
+      <c r="AR77" s="47"/>
+      <c r="AS77" s="47"/>
+      <c r="AT77" s="47"/>
+      <c r="AU77" s="47"/>
+      <c r="AV77" s="47"/>
+      <c r="AW77" s="47"/>
+      <c r="AX77" s="47"/>
+      <c r="AY77" s="47"/>
+      <c r="AZ77" s="47"/>
+      <c r="BA77" s="47"/>
+      <c r="BB77" s="47"/>
     </row>
     <row r="78" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="50"/>
-      <c r="V78" s="50"/>
-      <c r="W78" s="50"/>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="50"/>
-      <c r="AD78" s="50"/>
-      <c r="AE78" s="50"/>
-      <c r="AF78" s="50"/>
-      <c r="AG78" s="50"/>
-      <c r="AH78" s="50"/>
-      <c r="AI78" s="50"/>
-      <c r="AJ78" s="50"/>
-      <c r="AK78" s="50"/>
-      <c r="AL78" s="50"/>
-      <c r="AM78" s="50"/>
-      <c r="AN78" s="50"/>
-      <c r="AO78" s="50"/>
-      <c r="AP78" s="50"/>
-      <c r="AQ78" s="50"/>
-      <c r="AR78" s="50"/>
-      <c r="AS78" s="50"/>
-      <c r="AT78" s="50"/>
-      <c r="AU78" s="50"/>
-      <c r="AV78" s="50"/>
-      <c r="AW78" s="50"/>
-      <c r="AX78" s="50"/>
-      <c r="AY78" s="50"/>
-      <c r="AZ78" s="50"/>
-      <c r="BA78" s="50"/>
-      <c r="BB78" s="50"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="47"/>
+      <c r="T78" s="47"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+      <c r="AB78" s="47"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="47"/>
+      <c r="AE78" s="47"/>
+      <c r="AF78" s="47"/>
+      <c r="AG78" s="47"/>
+      <c r="AH78" s="47"/>
+      <c r="AI78" s="47"/>
+      <c r="AJ78" s="47"/>
+      <c r="AK78" s="47"/>
+      <c r="AL78" s="47"/>
+      <c r="AM78" s="47"/>
+      <c r="AN78" s="47"/>
+      <c r="AO78" s="47"/>
+      <c r="AP78" s="47"/>
+      <c r="AQ78" s="47"/>
+      <c r="AR78" s="47"/>
+      <c r="AS78" s="47"/>
+      <c r="AT78" s="47"/>
+      <c r="AU78" s="47"/>
+      <c r="AV78" s="47"/>
+      <c r="AW78" s="47"/>
+      <c r="AX78" s="47"/>
+      <c r="AY78" s="47"/>
+      <c r="AZ78" s="47"/>
+      <c r="BA78" s="47"/>
+      <c r="BB78" s="47"/>
     </row>
     <row r="79" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="50"/>
-      <c r="R79" s="50"/>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="50"/>
-      <c r="V79" s="50"/>
-      <c r="W79" s="50"/>
-      <c r="X79" s="50"/>
-      <c r="Y79" s="50"/>
-      <c r="Z79" s="50"/>
-      <c r="AA79" s="50"/>
-      <c r="AB79" s="50"/>
-      <c r="AC79" s="50"/>
-      <c r="AD79" s="50"/>
-      <c r="AE79" s="50"/>
-      <c r="AF79" s="50"/>
-      <c r="AG79" s="50"/>
-      <c r="AH79" s="50"/>
-      <c r="AI79" s="50"/>
-      <c r="AJ79" s="50"/>
-      <c r="AK79" s="50"/>
-      <c r="AL79" s="50"/>
-      <c r="AM79" s="50"/>
-      <c r="AN79" s="50"/>
-      <c r="AO79" s="50"/>
-      <c r="AP79" s="50"/>
-      <c r="AQ79" s="50"/>
-      <c r="AR79" s="50"/>
-      <c r="AS79" s="50"/>
-      <c r="AT79" s="50"/>
-      <c r="AU79" s="50"/>
-      <c r="AV79" s="50"/>
-      <c r="AW79" s="50"/>
-      <c r="AX79" s="50"/>
-      <c r="AY79" s="50"/>
-      <c r="AZ79" s="50"/>
-      <c r="BA79" s="50"/>
-      <c r="BB79" s="50"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="47"/>
+      <c r="S79" s="47"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="47"/>
+      <c r="Z79" s="47"/>
+      <c r="AA79" s="47"/>
+      <c r="AB79" s="47"/>
+      <c r="AC79" s="47"/>
+      <c r="AD79" s="47"/>
+      <c r="AE79" s="47"/>
+      <c r="AF79" s="47"/>
+      <c r="AG79" s="47"/>
+      <c r="AH79" s="47"/>
+      <c r="AI79" s="47"/>
+      <c r="AJ79" s="47"/>
+      <c r="AK79" s="47"/>
+      <c r="AL79" s="47"/>
+      <c r="AM79" s="47"/>
+      <c r="AN79" s="47"/>
+      <c r="AO79" s="47"/>
+      <c r="AP79" s="47"/>
+      <c r="AQ79" s="47"/>
+      <c r="AR79" s="47"/>
+      <c r="AS79" s="47"/>
+      <c r="AT79" s="47"/>
+      <c r="AU79" s="47"/>
+      <c r="AV79" s="47"/>
+      <c r="AW79" s="47"/>
+      <c r="AX79" s="47"/>
+      <c r="AY79" s="47"/>
+      <c r="AZ79" s="47"/>
+      <c r="BA79" s="47"/>
+      <c r="BB79" s="47"/>
     </row>
     <row r="80" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="50"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="50"/>
-      <c r="X80" s="50"/>
-      <c r="Y80" s="50"/>
-      <c r="Z80" s="50"/>
-      <c r="AA80" s="50"/>
-      <c r="AB80" s="50"/>
-      <c r="AC80" s="50"/>
-      <c r="AD80" s="50"/>
-      <c r="AE80" s="50"/>
-      <c r="AF80" s="50"/>
-      <c r="AG80" s="50"/>
-      <c r="AH80" s="50"/>
-      <c r="AI80" s="50"/>
-      <c r="AJ80" s="50"/>
-      <c r="AK80" s="50"/>
-      <c r="AL80" s="50"/>
-      <c r="AM80" s="50"/>
-      <c r="AN80" s="50"/>
-      <c r="AO80" s="50"/>
-      <c r="AP80" s="50"/>
-      <c r="AQ80" s="50"/>
-      <c r="AR80" s="50"/>
-      <c r="AS80" s="50"/>
-      <c r="AT80" s="50"/>
-      <c r="AU80" s="50"/>
-      <c r="AV80" s="50"/>
-      <c r="AW80" s="50"/>
-      <c r="AX80" s="50"/>
-      <c r="AY80" s="50"/>
-      <c r="AZ80" s="50"/>
-      <c r="BA80" s="50"/>
-      <c r="BB80" s="50"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+      <c r="S80" s="47"/>
+      <c r="T80" s="47"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="47"/>
+      <c r="Z80" s="47"/>
+      <c r="AA80" s="47"/>
+      <c r="AB80" s="47"/>
+      <c r="AC80" s="47"/>
+      <c r="AD80" s="47"/>
+      <c r="AE80" s="47"/>
+      <c r="AF80" s="47"/>
+      <c r="AG80" s="47"/>
+      <c r="AH80" s="47"/>
+      <c r="AI80" s="47"/>
+      <c r="AJ80" s="47"/>
+      <c r="AK80" s="47"/>
+      <c r="AL80" s="47"/>
+      <c r="AM80" s="47"/>
+      <c r="AN80" s="47"/>
+      <c r="AO80" s="47"/>
+      <c r="AP80" s="47"/>
+      <c r="AQ80" s="47"/>
+      <c r="AR80" s="47"/>
+      <c r="AS80" s="47"/>
+      <c r="AT80" s="47"/>
+      <c r="AU80" s="47"/>
+      <c r="AV80" s="47"/>
+      <c r="AW80" s="47"/>
+      <c r="AX80" s="47"/>
+      <c r="AY80" s="47"/>
+      <c r="AZ80" s="47"/>
+      <c r="BA80" s="47"/>
+      <c r="BB80" s="47"/>
     </row>
     <row r="81" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="50"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="50"/>
-      <c r="V81" s="50"/>
-      <c r="W81" s="50"/>
-      <c r="X81" s="50"/>
-      <c r="Y81" s="50"/>
-      <c r="Z81" s="50"/>
-      <c r="AA81" s="50"/>
-      <c r="AB81" s="50"/>
-      <c r="AC81" s="50"/>
-      <c r="AD81" s="50"/>
-      <c r="AE81" s="50"/>
-      <c r="AF81" s="50"/>
-      <c r="AG81" s="50"/>
-      <c r="AH81" s="50"/>
-      <c r="AI81" s="50"/>
-      <c r="AJ81" s="50"/>
-      <c r="AK81" s="50"/>
-      <c r="AL81" s="50"/>
-      <c r="AM81" s="50"/>
-      <c r="AN81" s="50"/>
-      <c r="AO81" s="50"/>
-      <c r="AP81" s="50"/>
-      <c r="AQ81" s="50"/>
-      <c r="AR81" s="50"/>
-      <c r="AS81" s="50"/>
-      <c r="AT81" s="50"/>
-      <c r="AU81" s="50"/>
-      <c r="AV81" s="50"/>
-      <c r="AW81" s="50"/>
-      <c r="AX81" s="50"/>
-      <c r="AY81" s="50"/>
-      <c r="AZ81" s="50"/>
-      <c r="BA81" s="50"/>
-      <c r="BB81" s="50"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+      <c r="T81" s="47"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="47"/>
+      <c r="Z81" s="47"/>
+      <c r="AA81" s="47"/>
+      <c r="AB81" s="47"/>
+      <c r="AC81" s="47"/>
+      <c r="AD81" s="47"/>
+      <c r="AE81" s="47"/>
+      <c r="AF81" s="47"/>
+      <c r="AG81" s="47"/>
+      <c r="AH81" s="47"/>
+      <c r="AI81" s="47"/>
+      <c r="AJ81" s="47"/>
+      <c r="AK81" s="47"/>
+      <c r="AL81" s="47"/>
+      <c r="AM81" s="47"/>
+      <c r="AN81" s="47"/>
+      <c r="AO81" s="47"/>
+      <c r="AP81" s="47"/>
+      <c r="AQ81" s="47"/>
+      <c r="AR81" s="47"/>
+      <c r="AS81" s="47"/>
+      <c r="AT81" s="47"/>
+      <c r="AU81" s="47"/>
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="47"/>
+      <c r="AX81" s="47"/>
+      <c r="AY81" s="47"/>
+      <c r="AZ81" s="47"/>
+      <c r="BA81" s="47"/>
+      <c r="BB81" s="47"/>
     </row>
     <row r="82" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="50"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="50"/>
-      <c r="O82" s="50"/>
-      <c r="P82" s="50"/>
-      <c r="Q82" s="50"/>
-      <c r="R82" s="50"/>
-      <c r="S82" s="50"/>
-      <c r="T82" s="50"/>
-      <c r="U82" s="50"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="50"/>
-      <c r="X82" s="50"/>
-      <c r="Y82" s="50"/>
-      <c r="Z82" s="50"/>
-      <c r="AA82" s="50"/>
-      <c r="AB82" s="50"/>
-      <c r="AC82" s="50"/>
-      <c r="AD82" s="50"/>
-      <c r="AE82" s="50"/>
-      <c r="AF82" s="50"/>
-      <c r="AG82" s="50"/>
-      <c r="AH82" s="50"/>
-      <c r="AI82" s="50"/>
-      <c r="AJ82" s="50"/>
-      <c r="AK82" s="50"/>
-      <c r="AL82" s="50"/>
-      <c r="AM82" s="50"/>
-      <c r="AN82" s="50"/>
-      <c r="AO82" s="50"/>
-      <c r="AP82" s="50"/>
-      <c r="AQ82" s="50"/>
-      <c r="AR82" s="50"/>
-      <c r="AS82" s="50"/>
-      <c r="AT82" s="50"/>
-      <c r="AU82" s="50"/>
-      <c r="AV82" s="50"/>
-      <c r="AW82" s="50"/>
-      <c r="AX82" s="50"/>
-      <c r="AY82" s="50"/>
-      <c r="AZ82" s="50"/>
-      <c r="BA82" s="50"/>
-      <c r="BB82" s="50"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+      <c r="AG82" s="47"/>
+      <c r="AH82" s="47"/>
+      <c r="AI82" s="47"/>
+      <c r="AJ82" s="47"/>
+      <c r="AK82" s="47"/>
+      <c r="AL82" s="47"/>
+      <c r="AM82" s="47"/>
+      <c r="AN82" s="47"/>
+      <c r="AO82" s="47"/>
+      <c r="AP82" s="47"/>
+      <c r="AQ82" s="47"/>
+      <c r="AR82" s="47"/>
+      <c r="AS82" s="47"/>
+      <c r="AT82" s="47"/>
+      <c r="AU82" s="47"/>
+      <c r="AV82" s="47"/>
+      <c r="AW82" s="47"/>
+      <c r="AX82" s="47"/>
+      <c r="AY82" s="47"/>
+      <c r="AZ82" s="47"/>
+      <c r="BA82" s="47"/>
+      <c r="BB82" s="47"/>
     </row>
     <row r="83" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
-      <c r="Q83" s="50"/>
-      <c r="R83" s="50"/>
-      <c r="S83" s="50"/>
-      <c r="T83" s="50"/>
-      <c r="U83" s="50"/>
-      <c r="V83" s="50"/>
-      <c r="W83" s="50"/>
-      <c r="X83" s="50"/>
-      <c r="Y83" s="50"/>
-      <c r="Z83" s="50"/>
-      <c r="AA83" s="50"/>
-      <c r="AB83" s="50"/>
-      <c r="AC83" s="50"/>
-      <c r="AD83" s="50"/>
-      <c r="AE83" s="50"/>
-      <c r="AF83" s="50"/>
-      <c r="AG83" s="50"/>
-      <c r="AH83" s="50"/>
-      <c r="AI83" s="50"/>
-      <c r="AJ83" s="50"/>
-      <c r="AK83" s="50"/>
-      <c r="AL83" s="50"/>
-      <c r="AM83" s="50"/>
-      <c r="AN83" s="50"/>
-      <c r="AO83" s="50"/>
-      <c r="AP83" s="50"/>
-      <c r="AQ83" s="50"/>
-      <c r="AR83" s="50"/>
-      <c r="AS83" s="50"/>
-      <c r="AT83" s="50"/>
-      <c r="AU83" s="50"/>
-      <c r="AV83" s="50"/>
-      <c r="AW83" s="50"/>
-      <c r="AX83" s="50"/>
-      <c r="AY83" s="50"/>
-      <c r="AZ83" s="50"/>
-      <c r="BA83" s="50"/>
-      <c r="BB83" s="50"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="47"/>
+      <c r="Z83" s="47"/>
+      <c r="AA83" s="47"/>
+      <c r="AB83" s="47"/>
+      <c r="AC83" s="47"/>
+      <c r="AD83" s="47"/>
+      <c r="AE83" s="47"/>
+      <c r="AF83" s="47"/>
+      <c r="AG83" s="47"/>
+      <c r="AH83" s="47"/>
+      <c r="AI83" s="47"/>
+      <c r="AJ83" s="47"/>
+      <c r="AK83" s="47"/>
+      <c r="AL83" s="47"/>
+      <c r="AM83" s="47"/>
+      <c r="AN83" s="47"/>
+      <c r="AO83" s="47"/>
+      <c r="AP83" s="47"/>
+      <c r="AQ83" s="47"/>
+      <c r="AR83" s="47"/>
+      <c r="AS83" s="47"/>
+      <c r="AT83" s="47"/>
+      <c r="AU83" s="47"/>
+      <c r="AV83" s="47"/>
+      <c r="AW83" s="47"/>
+      <c r="AX83" s="47"/>
+      <c r="AY83" s="47"/>
+      <c r="AZ83" s="47"/>
+      <c r="BA83" s="47"/>
+      <c r="BB83" s="47"/>
     </row>
     <row r="84" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="50"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="50"/>
-      <c r="Q84" s="50"/>
-      <c r="R84" s="50"/>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50"/>
-      <c r="U84" s="50"/>
-      <c r="V84" s="50"/>
-      <c r="W84" s="50"/>
-      <c r="X84" s="50"/>
-      <c r="Y84" s="50"/>
-      <c r="Z84" s="50"/>
-      <c r="AA84" s="50"/>
-      <c r="AB84" s="50"/>
-      <c r="AC84" s="50"/>
-      <c r="AD84" s="50"/>
-      <c r="AE84" s="50"/>
-      <c r="AF84" s="50"/>
-      <c r="AG84" s="50"/>
-      <c r="AH84" s="50"/>
-      <c r="AI84" s="50"/>
-      <c r="AJ84" s="50"/>
-      <c r="AK84" s="50"/>
-      <c r="AL84" s="50"/>
-      <c r="AM84" s="50"/>
-      <c r="AN84" s="50"/>
-      <c r="AO84" s="50"/>
-      <c r="AP84" s="50"/>
-      <c r="AQ84" s="50"/>
-      <c r="AR84" s="50"/>
-      <c r="AS84" s="50"/>
-      <c r="AT84" s="50"/>
-      <c r="AU84" s="50"/>
-      <c r="AV84" s="50"/>
-      <c r="AW84" s="50"/>
-      <c r="AX84" s="50"/>
-      <c r="AY84" s="50"/>
-      <c r="AZ84" s="50"/>
-      <c r="BA84" s="50"/>
-      <c r="BB84" s="50"/>
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="47"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="47"/>
+      <c r="S84" s="47"/>
+      <c r="T84" s="47"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="47"/>
+      <c r="Z84" s="47"/>
+      <c r="AA84" s="47"/>
+      <c r="AB84" s="47"/>
+      <c r="AC84" s="47"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="47"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="47"/>
+      <c r="AJ84" s="47"/>
+      <c r="AK84" s="47"/>
+      <c r="AL84" s="47"/>
+      <c r="AM84" s="47"/>
+      <c r="AN84" s="47"/>
+      <c r="AO84" s="47"/>
+      <c r="AP84" s="47"/>
+      <c r="AQ84" s="47"/>
+      <c r="AR84" s="47"/>
+      <c r="AS84" s="47"/>
+      <c r="AT84" s="47"/>
+      <c r="AU84" s="47"/>
+      <c r="AV84" s="47"/>
+      <c r="AW84" s="47"/>
+      <c r="AX84" s="47"/>
+      <c r="AY84" s="47"/>
+      <c r="AZ84" s="47"/>
+      <c r="BA84" s="47"/>
+      <c r="BB84" s="47"/>
     </row>
     <row r="85" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="50"/>
-      <c r="R85" s="50"/>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="50"/>
-      <c r="V85" s="50"/>
-      <c r="W85" s="50"/>
-      <c r="X85" s="50"/>
-      <c r="Y85" s="50"/>
-      <c r="Z85" s="50"/>
-      <c r="AA85" s="50"/>
-      <c r="AB85" s="50"/>
-      <c r="AC85" s="50"/>
-      <c r="AD85" s="50"/>
-      <c r="AE85" s="50"/>
-      <c r="AF85" s="50"/>
-      <c r="AG85" s="50"/>
-      <c r="AH85" s="50"/>
-      <c r="AI85" s="50"/>
-      <c r="AJ85" s="50"/>
-      <c r="AK85" s="50"/>
-      <c r="AL85" s="50"/>
-      <c r="AM85" s="50"/>
-      <c r="AN85" s="50"/>
-      <c r="AO85" s="50"/>
-      <c r="AP85" s="50"/>
-      <c r="AQ85" s="50"/>
-      <c r="AR85" s="50"/>
-      <c r="AS85" s="50"/>
-      <c r="AT85" s="50"/>
-      <c r="AU85" s="50"/>
-      <c r="AV85" s="50"/>
-      <c r="AW85" s="50"/>
-      <c r="AX85" s="50"/>
-      <c r="AY85" s="50"/>
-      <c r="AZ85" s="50"/>
-      <c r="BA85" s="50"/>
-      <c r="BB85" s="50"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="47"/>
+      <c r="S85" s="47"/>
+      <c r="T85" s="47"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="47"/>
+      <c r="Z85" s="47"/>
+      <c r="AA85" s="47"/>
+      <c r="AB85" s="47"/>
+      <c r="AC85" s="47"/>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="47"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="47"/>
+      <c r="AI85" s="47"/>
+      <c r="AJ85" s="47"/>
+      <c r="AK85" s="47"/>
+      <c r="AL85" s="47"/>
+      <c r="AM85" s="47"/>
+      <c r="AN85" s="47"/>
+      <c r="AO85" s="47"/>
+      <c r="AP85" s="47"/>
+      <c r="AQ85" s="47"/>
+      <c r="AR85" s="47"/>
+      <c r="AS85" s="47"/>
+      <c r="AT85" s="47"/>
+      <c r="AU85" s="47"/>
+      <c r="AV85" s="47"/>
+      <c r="AW85" s="47"/>
+      <c r="AX85" s="47"/>
+      <c r="AY85" s="47"/>
+      <c r="AZ85" s="47"/>
+      <c r="BA85" s="47"/>
+      <c r="BB85" s="47"/>
     </row>
     <row r="86" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="50"/>
-      <c r="W86" s="50"/>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="50"/>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="50"/>
-      <c r="AB86" s="50"/>
-      <c r="AC86" s="50"/>
-      <c r="AD86" s="50"/>
-      <c r="AE86" s="50"/>
-      <c r="AF86" s="50"/>
-      <c r="AG86" s="50"/>
-      <c r="AH86" s="50"/>
-      <c r="AI86" s="50"/>
-      <c r="AJ86" s="50"/>
-      <c r="AK86" s="50"/>
-      <c r="AL86" s="50"/>
-      <c r="AM86" s="50"/>
-      <c r="AN86" s="50"/>
-      <c r="AO86" s="50"/>
-      <c r="AP86" s="50"/>
-      <c r="AQ86" s="50"/>
-      <c r="AR86" s="50"/>
-      <c r="AS86" s="50"/>
-      <c r="AT86" s="50"/>
-      <c r="AU86" s="50"/>
-      <c r="AV86" s="50"/>
-      <c r="AW86" s="50"/>
-      <c r="AX86" s="50"/>
-      <c r="AY86" s="50"/>
-      <c r="AZ86" s="50"/>
-      <c r="BA86" s="50"/>
-      <c r="BB86" s="50"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="47"/>
+      <c r="Z86" s="47"/>
+      <c r="AA86" s="47"/>
+      <c r="AB86" s="47"/>
+      <c r="AC86" s="47"/>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="47"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="47"/>
+      <c r="AJ86" s="47"/>
+      <c r="AK86" s="47"/>
+      <c r="AL86" s="47"/>
+      <c r="AM86" s="47"/>
+      <c r="AN86" s="47"/>
+      <c r="AO86" s="47"/>
+      <c r="AP86" s="47"/>
+      <c r="AQ86" s="47"/>
+      <c r="AR86" s="47"/>
+      <c r="AS86" s="47"/>
+      <c r="AT86" s="47"/>
+      <c r="AU86" s="47"/>
+      <c r="AV86" s="47"/>
+      <c r="AW86" s="47"/>
+      <c r="AX86" s="47"/>
+      <c r="AY86" s="47"/>
+      <c r="AZ86" s="47"/>
+      <c r="BA86" s="47"/>
+      <c r="BB86" s="47"/>
     </row>
     <row r="87" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="50"/>
-      <c r="Q87" s="50"/>
-      <c r="R87" s="50"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="50"/>
-      <c r="V87" s="50"/>
-      <c r="W87" s="50"/>
-      <c r="X87" s="50"/>
-      <c r="Y87" s="50"/>
-      <c r="Z87" s="50"/>
-      <c r="AA87" s="50"/>
-      <c r="AB87" s="50"/>
-      <c r="AC87" s="50"/>
-      <c r="AD87" s="50"/>
-      <c r="AE87" s="50"/>
-      <c r="AF87" s="50"/>
-      <c r="AG87" s="50"/>
-      <c r="AH87" s="50"/>
-      <c r="AI87" s="50"/>
-      <c r="AJ87" s="50"/>
-      <c r="AK87" s="50"/>
-      <c r="AL87" s="50"/>
-      <c r="AM87" s="50"/>
-      <c r="AN87" s="50"/>
-      <c r="AO87" s="50"/>
-      <c r="AP87" s="50"/>
-      <c r="AQ87" s="50"/>
-      <c r="AR87" s="50"/>
-      <c r="AS87" s="50"/>
-      <c r="AT87" s="50"/>
-      <c r="AU87" s="50"/>
-      <c r="AV87" s="50"/>
-      <c r="AW87" s="50"/>
-      <c r="AX87" s="50"/>
-      <c r="AY87" s="50"/>
-      <c r="AZ87" s="50"/>
-      <c r="BA87" s="50"/>
-      <c r="BB87" s="50"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="47"/>
+      <c r="S87" s="47"/>
+      <c r="T87" s="47"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="47"/>
+      <c r="Z87" s="47"/>
+      <c r="AA87" s="47"/>
+      <c r="AB87" s="47"/>
+      <c r="AC87" s="47"/>
+      <c r="AD87" s="47"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="47"/>
+      <c r="AI87" s="47"/>
+      <c r="AJ87" s="47"/>
+      <c r="AK87" s="47"/>
+      <c r="AL87" s="47"/>
+      <c r="AM87" s="47"/>
+      <c r="AN87" s="47"/>
+      <c r="AO87" s="47"/>
+      <c r="AP87" s="47"/>
+      <c r="AQ87" s="47"/>
+      <c r="AR87" s="47"/>
+      <c r="AS87" s="47"/>
+      <c r="AT87" s="47"/>
+      <c r="AU87" s="47"/>
+      <c r="AV87" s="47"/>
+      <c r="AW87" s="47"/>
+      <c r="AX87" s="47"/>
+      <c r="AY87" s="47"/>
+      <c r="AZ87" s="47"/>
+      <c r="BA87" s="47"/>
+      <c r="BB87" s="47"/>
     </row>
     <row r="88" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="50"/>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="50"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="50"/>
-      <c r="V88" s="50"/>
-      <c r="W88" s="50"/>
-      <c r="X88" s="50"/>
-      <c r="Y88" s="50"/>
-      <c r="Z88" s="50"/>
-      <c r="AA88" s="50"/>
-      <c r="AB88" s="50"/>
-      <c r="AC88" s="50"/>
-      <c r="AD88" s="50"/>
-      <c r="AE88" s="50"/>
-      <c r="AF88" s="50"/>
-      <c r="AG88" s="50"/>
-      <c r="AH88" s="50"/>
-      <c r="AI88" s="50"/>
-      <c r="AJ88" s="50"/>
-      <c r="AK88" s="50"/>
-      <c r="AL88" s="50"/>
-      <c r="AM88" s="50"/>
-      <c r="AN88" s="50"/>
-      <c r="AO88" s="50"/>
-      <c r="AP88" s="50"/>
-      <c r="AQ88" s="50"/>
-      <c r="AR88" s="50"/>
-      <c r="AS88" s="50"/>
-      <c r="AT88" s="50"/>
-      <c r="AU88" s="50"/>
-      <c r="AV88" s="50"/>
-      <c r="AW88" s="50"/>
-      <c r="AX88" s="50"/>
-      <c r="AY88" s="50"/>
-      <c r="AZ88" s="50"/>
-      <c r="BA88" s="50"/>
-      <c r="BB88" s="50"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="47"/>
+      <c r="S88" s="47"/>
+      <c r="T88" s="47"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="47"/>
+      <c r="Z88" s="47"/>
+      <c r="AA88" s="47"/>
+      <c r="AB88" s="47"/>
+      <c r="AC88" s="47"/>
+      <c r="AD88" s="47"/>
+      <c r="AE88" s="47"/>
+      <c r="AF88" s="47"/>
+      <c r="AG88" s="47"/>
+      <c r="AH88" s="47"/>
+      <c r="AI88" s="47"/>
+      <c r="AJ88" s="47"/>
+      <c r="AK88" s="47"/>
+      <c r="AL88" s="47"/>
+      <c r="AM88" s="47"/>
+      <c r="AN88" s="47"/>
+      <c r="AO88" s="47"/>
+      <c r="AP88" s="47"/>
+      <c r="AQ88" s="47"/>
+      <c r="AR88" s="47"/>
+      <c r="AS88" s="47"/>
+      <c r="AT88" s="47"/>
+      <c r="AU88" s="47"/>
+      <c r="AV88" s="47"/>
+      <c r="AW88" s="47"/>
+      <c r="AX88" s="47"/>
+      <c r="AY88" s="47"/>
+      <c r="AZ88" s="47"/>
+      <c r="BA88" s="47"/>
+      <c r="BB88" s="47"/>
     </row>
     <row r="89" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="50"/>
-      <c r="Q89" s="50"/>
-      <c r="R89" s="50"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="W89" s="50"/>
-      <c r="X89" s="50"/>
-      <c r="Y89" s="50"/>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="50"/>
-      <c r="AB89" s="50"/>
-      <c r="AC89" s="50"/>
-      <c r="AD89" s="50"/>
-      <c r="AE89" s="50"/>
-      <c r="AF89" s="50"/>
-      <c r="AG89" s="50"/>
-      <c r="AH89" s="50"/>
-      <c r="AI89" s="50"/>
-      <c r="AJ89" s="50"/>
-      <c r="AK89" s="50"/>
-      <c r="AL89" s="50"/>
-      <c r="AM89" s="50"/>
-      <c r="AN89" s="50"/>
-      <c r="AO89" s="50"/>
-      <c r="AP89" s="50"/>
-      <c r="AQ89" s="50"/>
-      <c r="AR89" s="50"/>
-      <c r="AS89" s="50"/>
-      <c r="AT89" s="50"/>
-      <c r="AU89" s="50"/>
-      <c r="AV89" s="50"/>
-      <c r="AW89" s="50"/>
-      <c r="AX89" s="50"/>
-      <c r="AY89" s="50"/>
-      <c r="AZ89" s="50"/>
-      <c r="BA89" s="50"/>
-      <c r="BB89" s="50"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="47"/>
+      <c r="Z89" s="47"/>
+      <c r="AA89" s="47"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="47"/>
+      <c r="AD89" s="47"/>
+      <c r="AE89" s="47"/>
+      <c r="AF89" s="47"/>
+      <c r="AG89" s="47"/>
+      <c r="AH89" s="47"/>
+      <c r="AI89" s="47"/>
+      <c r="AJ89" s="47"/>
+      <c r="AK89" s="47"/>
+      <c r="AL89" s="47"/>
+      <c r="AM89" s="47"/>
+      <c r="AN89" s="47"/>
+      <c r="AO89" s="47"/>
+      <c r="AP89" s="47"/>
+      <c r="AQ89" s="47"/>
+      <c r="AR89" s="47"/>
+      <c r="AS89" s="47"/>
+      <c r="AT89" s="47"/>
+      <c r="AU89" s="47"/>
+      <c r="AV89" s="47"/>
+      <c r="AW89" s="47"/>
+      <c r="AX89" s="47"/>
+      <c r="AY89" s="47"/>
+      <c r="AZ89" s="47"/>
+      <c r="BA89" s="47"/>
+      <c r="BB89" s="47"/>
     </row>
     <row r="90" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="50"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="W90" s="50"/>
-      <c r="X90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
-      <c r="AB90" s="50"/>
-      <c r="AC90" s="50"/>
-      <c r="AD90" s="50"/>
-      <c r="AE90" s="50"/>
-      <c r="AF90" s="50"/>
-      <c r="AG90" s="50"/>
-      <c r="AH90" s="50"/>
-      <c r="AI90" s="50"/>
-      <c r="AJ90" s="50"/>
-      <c r="AK90" s="50"/>
-      <c r="AL90" s="50"/>
-      <c r="AM90" s="50"/>
-      <c r="AN90" s="50"/>
-      <c r="AO90" s="50"/>
-      <c r="AP90" s="50"/>
-      <c r="AQ90" s="50"/>
-      <c r="AR90" s="50"/>
-      <c r="AS90" s="50"/>
-      <c r="AT90" s="50"/>
-      <c r="AU90" s="50"/>
-      <c r="AV90" s="50"/>
-      <c r="AW90" s="50"/>
-      <c r="AX90" s="50"/>
-      <c r="AY90" s="50"/>
-      <c r="AZ90" s="50"/>
-      <c r="BA90" s="50"/>
-      <c r="BB90" s="50"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="47"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="47"/>
+      <c r="S90" s="47"/>
+      <c r="T90" s="47"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="47"/>
+      <c r="X90" s="47"/>
+      <c r="Y90" s="47"/>
+      <c r="Z90" s="47"/>
+      <c r="AA90" s="47"/>
+      <c r="AB90" s="47"/>
+      <c r="AC90" s="47"/>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="47"/>
+      <c r="AG90" s="47"/>
+      <c r="AH90" s="47"/>
+      <c r="AI90" s="47"/>
+      <c r="AJ90" s="47"/>
+      <c r="AK90" s="47"/>
+      <c r="AL90" s="47"/>
+      <c r="AM90" s="47"/>
+      <c r="AN90" s="47"/>
+      <c r="AO90" s="47"/>
+      <c r="AP90" s="47"/>
+      <c r="AQ90" s="47"/>
+      <c r="AR90" s="47"/>
+      <c r="AS90" s="47"/>
+      <c r="AT90" s="47"/>
+      <c r="AU90" s="47"/>
+      <c r="AV90" s="47"/>
+      <c r="AW90" s="47"/>
+      <c r="AX90" s="47"/>
+      <c r="AY90" s="47"/>
+      <c r="AZ90" s="47"/>
+      <c r="BA90" s="47"/>
+      <c r="BB90" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11753,22 +11781,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA95A4C4-E725-4802-A251-FD8D73A4246F}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB26" sqref="D26:AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" customWidth="1"/>
     <col min="27" max="27" width="15.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.5" x14ac:dyDescent="0.3">
@@ -11776,38 +11812,38 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="13" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="15"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="78" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="38" t="s">
@@ -11822,7 +11858,7 @@
       <c r="E2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="45" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="40" t="s">
@@ -11843,25 +11879,25 @@
       <c r="L2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="46" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="40" t="s">
@@ -11885,7 +11921,7 @@
       <c r="Z2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="AB2" s="35" t="s">
@@ -11893,7 +11929,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -11909,69 +11945,69 @@
         <f>D3/60</f>
         <v>10.183333333333334</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>1180</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>433</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>747</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>2107</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>1206278</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>457420</v>
       </c>
       <c r="L3" s="7">
         <v>748858</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="42">
         <v>1200</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="42">
         <v>449</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="42">
         <v>751</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="42">
         <v>2130</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="42">
         <v>1206278</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="42">
         <v>457420</v>
       </c>
       <c r="S3" s="7">
         <v>748858</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="41">
         <f>F3+M3</f>
         <v>2380</v>
       </c>
-      <c r="U3" s="42">
+      <c r="U3" s="41">
         <f>G3+N3</f>
         <v>882</v>
       </c>
-      <c r="V3" s="42">
+      <c r="V3" s="41">
         <f>I3+P3</f>
         <v>4237</v>
       </c>
-      <c r="W3" s="42">
+      <c r="W3" s="41">
         <f>H3+O3</f>
         <v>1498</v>
       </c>
-      <c r="X3" s="42">
+      <c r="X3" s="41">
         <f>J3+Q3</f>
         <v>2412556</v>
       </c>
-      <c r="Y3" s="42">
+      <c r="Y3" s="41">
         <f>K3+R3</f>
         <v>914840</v>
       </c>
@@ -11979,17 +12015,17 @@
         <f>L3+S3</f>
         <v>1497716</v>
       </c>
-      <c r="AA3" s="44">
+      <c r="AA3" s="43">
         <f>Y3/D3</f>
         <v>1497.2831423895254</v>
       </c>
-      <c r="AB3" s="45">
+      <c r="AB3" s="44">
         <f>1 + V3/T3</f>
         <v>2.780252100840336</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
         <v>175</v>
@@ -12074,7 +12110,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
         <v>200</v>
@@ -12165,7 +12201,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="5">
         <v>0.02</v>
       </c>
@@ -12252,7 +12288,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6">
         <v>175</v>
@@ -12337,7 +12373,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <v>200</v>
@@ -12423,13 +12459,13 @@
         <f>Y8/D8</f>
         <v>8365.4700854700859</v>
       </c>
-      <c r="AB8" s="36">
+      <c r="AB8" s="63">
         <f t="shared" si="1"/>
         <v>1.2515274949083504</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="3">
         <v>0.04</v>
       </c>
@@ -12513,13 +12549,13 @@
         <f>Y9/D9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4">
         <v>175</v>
@@ -12601,13 +12637,13 @@
         <f>Y10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="36">
+      <c r="AB10" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
         <v>200</v>
@@ -12689,13 +12725,13 @@
         <f>Y11/D11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB11" s="64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="62">
         <v>4</v>
       </c>
       <c r="B12" s="3">
@@ -12711,49 +12747,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="42">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
+      <c r="F12" s="41">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41">
+        <v>0</v>
+      </c>
+      <c r="K12" s="41">
         <v>0</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>2481</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="42">
         <v>2419</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="42">
         <v>62</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43">
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42">
         <v>2470010</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <v>2400739</v>
       </c>
       <c r="S12" s="7">
         <v>69271</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="41">
         <f>F12+M12</f>
         <v>2481</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="41">
         <f>G12+N12</f>
         <v>2419</v>
       </c>
@@ -12761,15 +12797,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <f>H12+O12</f>
         <v>62</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <f>J12+Q12</f>
         <v>2470010</v>
       </c>
-      <c r="Y12" s="42">
+      <c r="Y12" s="41">
         <f>K12+R12</f>
         <v>2400739</v>
       </c>
@@ -12777,17 +12813,17 @@
         <f>L12+S12</f>
         <v>69271</v>
       </c>
-      <c r="AA12" s="44" t="e">
+      <c r="AA12" s="43" t="e">
         <f>Y12/D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB12" s="45">
+      <c r="AB12" s="65">
         <f>1 + V12/T12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
         <v>175</v>
@@ -12869,13 +12905,13 @@
         <f>Y13/D13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AB13" s="63">
         <f t="shared" ref="AB13:AB20" si="3">1 + V13/T13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
         <v>200</v>
@@ -12957,13 +12993,13 @@
         <f>Y14/D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB14" s="36">
+      <c r="AB14" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="5">
         <v>0.02</v>
       </c>
@@ -13047,13 +13083,13 @@
         <f>Y15/D15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB15" s="36">
+      <c r="AB15" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6">
         <v>175</v>
@@ -13135,13 +13171,13 @@
         <f>Y16/D16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB16" s="36">
+      <c r="AB16" s="63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6">
         <v>200</v>
@@ -13227,13 +13263,13 @@
         <f>Y17/D17</f>
         <v>3406.3529411764707</v>
       </c>
-      <c r="AB17" s="36">
+      <c r="AB17" s="63">
         <f t="shared" si="3"/>
         <v>2.71875</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="3">
         <v>0.04</v>
       </c>
@@ -13323,7 +13359,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
         <v>175</v>
@@ -13411,7 +13447,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4">
         <v>200</v>
@@ -13499,7 +13535,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="62">
         <v>8</v>
       </c>
       <c r="B21" s="3">
@@ -13515,49 +13551,49 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="42">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42">
-        <v>0</v>
-      </c>
-      <c r="H21" s="42">
+      <c r="F21" s="41">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41">
         <v>57</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42">
-        <v>0</v>
-      </c>
-      <c r="K21" s="42">
+      <c r="I21" s="41"/>
+      <c r="J21" s="41">
+        <v>0</v>
+      </c>
+      <c r="K21" s="41">
         <v>0</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="42">
         <v>2481</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="42">
         <v>2419</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="42">
         <v>62</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43">
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42">
         <v>2470010</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <v>2400739</v>
       </c>
       <c r="S21" s="7">
         <v>69271</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="41">
         <f>F21+M21</f>
         <v>2481</v>
       </c>
-      <c r="U21" s="42">
+      <c r="U21" s="41">
         <f>G21+N21</f>
         <v>2419</v>
       </c>
@@ -13565,15 +13601,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W21" s="42">
+      <c r="W21" s="41">
         <f>H21+O21</f>
         <v>119</v>
       </c>
-      <c r="X21" s="42">
+      <c r="X21" s="41">
         <f>J21+Q21</f>
         <v>2470010</v>
       </c>
-      <c r="Y21" s="42">
+      <c r="Y21" s="41">
         <f>K21+R21</f>
         <v>2400739</v>
       </c>
@@ -13581,17 +13617,17 @@
         <f>L21+S21</f>
         <v>69271</v>
       </c>
-      <c r="AA21" s="44" t="e">
+      <c r="AA21" s="43" t="e">
         <f>Y21/D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB21" s="45">
+      <c r="AB21" s="44">
         <f>1 + V21/T21</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4">
         <v>175</v>
@@ -13679,7 +13715,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
         <v>200</v>
@@ -13767,7 +13803,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="5">
         <v>0.02</v>
       </c>
@@ -13857,7 +13893,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6">
         <v>175</v>
@@ -13945,108 +13981,104 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6">
         <v>200</v>
       </c>
       <c r="D26" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
-        <v>0</v>
-      </c>
-      <c r="N26" s="32">
-        <v>0</v>
-      </c>
-      <c r="O26" s="32">
-        <v>0</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="32">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32">
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0</v>
-      </c>
-      <c r="T26" s="32">
-        <f>F26+M26</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="32">
-        <f>G26+N26</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="32">
-        <f>H26+O26</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="32">
-        <f>J26+Q26</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="32">
-        <f>K26+R26</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="8">
-        <f>L26+S26</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB26" s="36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="11">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>16</v>
+      </c>
+      <c r="U26" s="10">
+        <v>16</v>
+      </c>
+      <c r="V26" s="10">
+        <v>38</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
+        <f>7813+6494</f>
+        <v>14307</v>
+      </c>
+      <c r="Y26" s="10">
+        <f>7813+6494</f>
+        <v>14307</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="34">
+        <f>Y26/D26</f>
+        <v>3576.75</v>
+      </c>
+      <c r="AB26" s="27">
+        <f>V26/T26</f>
+        <v>2.375</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="3">
         <v>0.04</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="57">
         <v>150</v>
       </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D27" s="58">
+        <v>0</v>
+      </c>
+      <c r="E27" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14123,7 +14155,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4">
         <v>175</v>
@@ -14208,7 +14240,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4">
         <v>200</v>
